--- a/os_fe_tw.xlsx
+++ b/os_fe_tw.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D898C3DF-827C-414A-9AA6-99AA6FE13A74}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{89787267-E6EB-AB4E-B23D-BE80891FFD83}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="manager_new_en.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="osfe_new_en.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5288" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5400" uniqueCount="1209">
   <si>
     <t>文件目录</t>
   </si>
@@ -2231,6 +2231,36 @@
     <t>personal.js22</t>
   </si>
   <si>
+    <t>荣耀</t>
+  </si>
+  <si>
+    <t>personal.js23</t>
+  </si>
+  <si>
+    <t>personal.js24</t>
+  </si>
+  <si>
+    <t>pages/homepage/index.js.cn.i18n</t>
+  </si>
+  <si>
+    <t>个人主页</t>
+  </si>
+  <si>
+    <t>资料</t>
+  </si>
+  <si>
+    <t>发言</t>
+  </si>
+  <si>
+    <t>的个人主页</t>
+  </si>
+  <si>
+    <t>发消息</t>
+  </si>
+  <si>
+    <t>发邮件</t>
+  </si>
+  <si>
     <t>pages/invitation/index.js.cn.i18n</t>
   </si>
   <si>
@@ -2516,6 +2546,9 @@
     <t>开放平台</t>
   </si>
   <si>
+    <t>開放平台</t>
+  </si>
+  <si>
     <t>MainNav.js4</t>
   </si>
   <si>
@@ -3140,6 +3173,27 @@
     <t>添加到首頁</t>
   </si>
   <si>
+    <t>pages/work/resize-work.js.cn.i18n</t>
+  </si>
+  <si>
+    <t>resize-work.js.cn.i18n</t>
+  </si>
+  <si>
+    <t>resize-work.js0</t>
+  </si>
+  <si>
+    <t>resize-work.js1</t>
+  </si>
+  <si>
+    <t>resize-work.js2</t>
+  </si>
+  <si>
+    <t>resize-work.js3</t>
+  </si>
+  <si>
+    <t>resize-work.js4</t>
+  </si>
+  <si>
     <t>public/regMessageTypeHandler.js.cn.i18n</t>
   </si>
   <si>
@@ -3551,9 +3605,93 @@
     <t>获取金额符号</t>
   </si>
   <si>
-    <t>開放平台</t>
+    <t>榮耀</t>
     <rPh sb="0" eb="2">
-      <t>kai fang</t>
+      <t>rong yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>個人主頁</t>
+    <rPh sb="0" eb="2">
+      <t>ge ren zhu ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料</t>
+    <rPh sb="0" eb="2">
+      <t>zi liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發言</t>
+    <rPh sb="0" eb="2">
+      <t>fa yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的個人主頁</t>
+    <rPh sb="0" eb="2">
+      <t>ge ren zhu ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發消息</t>
+    <rPh sb="0" eb="2">
+      <t>fa xiao xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發郵件</t>
+    <rPh sb="0" eb="2">
+      <t>fa you jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>從首頁移除失敗</t>
+    <rPh sb="0" eb="6">
+      <t>shi bai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>從首頁移除成功</t>
+    <rPh sb="0" eb="2">
+      <t>cong shou ye yi chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回首頁</t>
+    <rPh sb="0" eb="2">
+      <t>fan hui shou ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相關服務</t>
+    <rPh sb="0" eb="2">
+      <t>xiang guan fu wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加到首頁</t>
+    <rPh sb="0" eb="2">
+      <t>tian jia dao shou ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <rPh sb="0" eb="2">
+      <t>ti shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3939,16 +4077,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H661"/>
+  <dimension ref="A1:H675"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="G463" sqref="G463"/>
+    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
+      <selection activeCell="G622" sqref="G622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="7" width="53.1640625" customWidth="1"/>
+    <col min="6" max="6" width="36.5" customWidth="1"/>
+    <col min="7" max="7" width="91.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14706,10 +14844,10 @@
         <v>7</v>
       </c>
       <c r="F414" t="s">
-        <v>17</v>
+        <v>556</v>
       </c>
       <c r="G414" t="s">
-        <v>18</v>
+        <v>557</v>
       </c>
       <c r="H414" t="s">
         <v>7</v>
@@ -14732,10 +14870,10 @@
         <v>7</v>
       </c>
       <c r="F415" t="s">
-        <v>14</v>
+        <v>738</v>
       </c>
       <c r="G415" t="s">
-        <v>15</v>
+        <v>1196</v>
       </c>
       <c r="H415" t="s">
         <v>7</v>
@@ -14743,13 +14881,13 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" t="s">
-        <v>738</v>
+        <v>691</v>
       </c>
       <c r="B416" t="s">
-        <v>9</v>
+        <v>692</v>
       </c>
       <c r="C416" t="s">
-        <v>10</v>
+        <v>739</v>
       </c>
       <c r="D416" t="s">
         <v>11</v>
@@ -14758,10 +14896,10 @@
         <v>7</v>
       </c>
       <c r="F416" t="s">
-        <v>739</v>
+        <v>17</v>
       </c>
       <c r="G416" t="s">
-        <v>740</v>
+        <v>18</v>
       </c>
       <c r="H416" t="s">
         <v>7</v>
@@ -14769,13 +14907,13 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" t="s">
-        <v>738</v>
+        <v>691</v>
       </c>
       <c r="B417" t="s">
-        <v>9</v>
+        <v>692</v>
       </c>
       <c r="C417" t="s">
-        <v>16</v>
+        <v>740</v>
       </c>
       <c r="D417" t="s">
         <v>11</v>
@@ -14784,10 +14922,10 @@
         <v>7</v>
       </c>
       <c r="F417" t="s">
-        <v>741</v>
+        <v>14</v>
       </c>
       <c r="G417" t="s">
-        <v>742</v>
+        <v>15</v>
       </c>
       <c r="H417" t="s">
         <v>7</v>
@@ -14795,13 +14933,13 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B418" t="s">
         <v>9</v>
       </c>
       <c r="C418" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D418" t="s">
         <v>11</v>
@@ -14810,10 +14948,10 @@
         <v>7</v>
       </c>
       <c r="F418" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G418" t="s">
-        <v>744</v>
+        <v>1197</v>
       </c>
       <c r="H418" t="s">
         <v>7</v>
@@ -14821,13 +14959,13 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B419" t="s">
         <v>9</v>
       </c>
       <c r="C419" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D419" t="s">
         <v>11</v>
@@ -14836,10 +14974,10 @@
         <v>7</v>
       </c>
       <c r="F419" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G419" t="s">
-        <v>746</v>
+        <v>1198</v>
       </c>
       <c r="H419" t="s">
         <v>7</v>
@@ -14847,13 +14985,13 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B420" t="s">
         <v>9</v>
       </c>
       <c r="C420" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D420" t="s">
         <v>11</v>
@@ -14862,10 +15000,10 @@
         <v>7</v>
       </c>
       <c r="F420" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G420" t="s">
-        <v>748</v>
+        <v>1199</v>
       </c>
       <c r="H420" t="s">
         <v>7</v>
@@ -14873,25 +15011,25 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" t="s">
+        <v>741</v>
+      </c>
+      <c r="B421" t="s">
+        <v>9</v>
+      </c>
+      <c r="C421" t="s">
+        <v>22</v>
+      </c>
+      <c r="D421" t="s">
+        <v>11</v>
+      </c>
+      <c r="E421" t="s">
+        <v>7</v>
+      </c>
+      <c r="F421" t="s">
         <v>738</v>
       </c>
-      <c r="B421" t="s">
-        <v>9</v>
-      </c>
-      <c r="C421" t="s">
-        <v>26</v>
-      </c>
-      <c r="D421" t="s">
-        <v>11</v>
-      </c>
-      <c r="E421" t="s">
-        <v>7</v>
-      </c>
-      <c r="F421" t="s">
-        <v>357</v>
-      </c>
       <c r="G421" t="s">
-        <v>358</v>
+        <v>1196</v>
       </c>
       <c r="H421" t="s">
         <v>7</v>
@@ -14899,13 +15037,13 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B422" t="s">
         <v>9</v>
       </c>
       <c r="C422" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D422" t="s">
         <v>11</v>
@@ -14914,10 +15052,10 @@
         <v>7</v>
       </c>
       <c r="F422" t="s">
-        <v>357</v>
+        <v>745</v>
       </c>
       <c r="G422" t="s">
-        <v>358</v>
+        <v>1200</v>
       </c>
       <c r="H422" t="s">
         <v>7</v>
@@ -14925,13 +15063,13 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B423" t="s">
         <v>9</v>
       </c>
       <c r="C423" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="D423" t="s">
         <v>11</v>
@@ -14940,10 +15078,10 @@
         <v>7</v>
       </c>
       <c r="F423" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G423" t="s">
-        <v>750</v>
+        <v>1201</v>
       </c>
       <c r="H423" t="s">
         <v>7</v>
@@ -14951,13 +15089,13 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B424" t="s">
         <v>9</v>
       </c>
       <c r="C424" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="D424" t="s">
         <v>11</v>
@@ -14966,10 +15104,10 @@
         <v>7</v>
       </c>
       <c r="F424" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="G424" t="s">
-        <v>752</v>
+        <v>1202</v>
       </c>
       <c r="H424" t="s">
         <v>7</v>
@@ -14977,13 +15115,13 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B425" t="s">
         <v>9</v>
       </c>
       <c r="C425" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="D425" t="s">
         <v>11</v>
@@ -14992,10 +15130,10 @@
         <v>7</v>
       </c>
       <c r="F425" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="G425" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="H425" t="s">
         <v>7</v>
@@ -15003,13 +15141,13 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B426" t="s">
         <v>9</v>
       </c>
       <c r="C426" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="D426" t="s">
         <v>11</v>
@@ -15018,10 +15156,10 @@
         <v>7</v>
       </c>
       <c r="F426" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="G426" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="H426" t="s">
         <v>7</v>
@@ -15029,13 +15167,13 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B427" t="s">
         <v>9</v>
       </c>
       <c r="C427" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="D427" t="s">
         <v>11</v>
@@ -15044,10 +15182,10 @@
         <v>7</v>
       </c>
       <c r="F427" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="G427" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="H427" t="s">
         <v>7</v>
@@ -15055,13 +15193,13 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B428" t="s">
         <v>9</v>
       </c>
       <c r="C428" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="D428" t="s">
         <v>11</v>
@@ -15070,10 +15208,10 @@
         <v>7</v>
       </c>
       <c r="F428" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="G428" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="H428" t="s">
         <v>7</v>
@@ -15081,13 +15219,13 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B429" t="s">
         <v>9</v>
       </c>
       <c r="C429" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="D429" t="s">
         <v>11</v>
@@ -15096,10 +15234,10 @@
         <v>7</v>
       </c>
       <c r="F429" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="G429" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="H429" t="s">
         <v>7</v>
@@ -15107,13 +15245,13 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B430" t="s">
         <v>9</v>
       </c>
       <c r="C430" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="D430" t="s">
         <v>11</v>
@@ -15122,10 +15260,10 @@
         <v>7</v>
       </c>
       <c r="F430" t="s">
-        <v>745</v>
+        <v>357</v>
       </c>
       <c r="G430" t="s">
-        <v>746</v>
+        <v>358</v>
       </c>
       <c r="H430" t="s">
         <v>7</v>
@@ -15133,13 +15271,13 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B431" t="s">
         <v>9</v>
       </c>
       <c r="C431" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="D431" t="s">
         <v>11</v>
@@ -15148,10 +15286,10 @@
         <v>7</v>
       </c>
       <c r="F431" t="s">
-        <v>763</v>
+        <v>357</v>
       </c>
       <c r="G431" t="s">
-        <v>763</v>
+        <v>358</v>
       </c>
       <c r="H431" t="s">
         <v>7</v>
@@ -15159,13 +15297,13 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B432" t="s">
         <v>9</v>
       </c>
       <c r="C432" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D432" t="s">
         <v>11</v>
@@ -15174,10 +15312,10 @@
         <v>7</v>
       </c>
       <c r="F432" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G432" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="H432" t="s">
         <v>7</v>
@@ -15185,13 +15323,13 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B433" t="s">
         <v>9</v>
       </c>
       <c r="C433" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D433" t="s">
         <v>11</v>
@@ -15200,10 +15338,10 @@
         <v>7</v>
       </c>
       <c r="F433" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G433" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="H433" t="s">
         <v>7</v>
@@ -15211,13 +15349,13 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B434" t="s">
         <v>9</v>
       </c>
       <c r="C434" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D434" t="s">
         <v>11</v>
@@ -15226,10 +15364,10 @@
         <v>7</v>
       </c>
       <c r="F434" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G434" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="H434" t="s">
         <v>7</v>
@@ -15237,13 +15375,13 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B435" t="s">
         <v>9</v>
       </c>
       <c r="C435" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D435" t="s">
         <v>11</v>
@@ -15252,10 +15390,10 @@
         <v>7</v>
       </c>
       <c r="F435" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G435" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="H435" t="s">
         <v>7</v>
@@ -15263,13 +15401,13 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B436" t="s">
         <v>9</v>
       </c>
       <c r="C436" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="D436" t="s">
         <v>11</v>
@@ -15278,10 +15416,10 @@
         <v>7</v>
       </c>
       <c r="F436" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G436" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="H436" t="s">
         <v>7</v>
@@ -15289,13 +15427,13 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B437" t="s">
         <v>9</v>
       </c>
       <c r="C437" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="D437" t="s">
         <v>11</v>
@@ -15304,10 +15442,10 @@
         <v>7</v>
       </c>
       <c r="F437" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="G437" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="H437" t="s">
         <v>7</v>
@@ -15315,13 +15453,13 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
       <c r="B438" t="s">
-        <v>777</v>
+        <v>9</v>
       </c>
       <c r="C438" t="s">
-        <v>778</v>
+        <v>144</v>
       </c>
       <c r="D438" t="s">
         <v>11</v>
@@ -15330,10 +15468,10 @@
         <v>7</v>
       </c>
       <c r="F438" t="s">
-        <v>357</v>
+        <v>771</v>
       </c>
       <c r="G438" t="s">
-        <v>358</v>
+        <v>772</v>
       </c>
       <c r="H438" t="s">
         <v>7</v>
@@ -15341,13 +15479,13 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
       <c r="B439" t="s">
-        <v>777</v>
+        <v>9</v>
       </c>
       <c r="C439" t="s">
-        <v>779</v>
+        <v>147</v>
       </c>
       <c r="D439" t="s">
         <v>11</v>
@@ -15356,10 +15494,10 @@
         <v>7</v>
       </c>
       <c r="F439" t="s">
-        <v>780</v>
+        <v>755</v>
       </c>
       <c r="G439" t="s">
-        <v>780</v>
+        <v>756</v>
       </c>
       <c r="H439" t="s">
         <v>7</v>
@@ -15367,13 +15505,13 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
       <c r="B440" t="s">
-        <v>777</v>
+        <v>9</v>
       </c>
       <c r="C440" t="s">
-        <v>781</v>
+        <v>150</v>
       </c>
       <c r="D440" t="s">
         <v>11</v>
@@ -15382,10 +15520,10 @@
         <v>7</v>
       </c>
       <c r="F440" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="G440" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="H440" t="s">
         <v>7</v>
@@ -15393,13 +15531,13 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
       <c r="B441" t="s">
-        <v>777</v>
+        <v>9</v>
       </c>
       <c r="C441" t="s">
-        <v>784</v>
+        <v>153</v>
       </c>
       <c r="D441" t="s">
         <v>11</v>
@@ -15408,10 +15546,10 @@
         <v>7</v>
       </c>
       <c r="F441" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="G441" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="H441" t="s">
         <v>7</v>
@@ -15419,13 +15557,13 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" t="s">
-        <v>787</v>
+        <v>748</v>
       </c>
       <c r="B442" t="s">
         <v>9</v>
       </c>
       <c r="C442" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="D442" t="s">
         <v>11</v>
@@ -15434,10 +15572,10 @@
         <v>7</v>
       </c>
       <c r="F442" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="G442" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="H442" t="s">
         <v>7</v>
@@ -15445,13 +15583,13 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" t="s">
-        <v>787</v>
+        <v>748</v>
       </c>
       <c r="B443" t="s">
         <v>9</v>
       </c>
       <c r="C443" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="D443" t="s">
         <v>11</v>
@@ -15460,10 +15598,10 @@
         <v>7</v>
       </c>
       <c r="F443" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="G443" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="H443" t="s">
         <v>7</v>
@@ -15471,13 +15609,13 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" t="s">
-        <v>787</v>
+        <v>748</v>
       </c>
       <c r="B444" t="s">
         <v>9</v>
       </c>
       <c r="C444" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="D444" t="s">
         <v>11</v>
@@ -15486,10 +15624,10 @@
         <v>7</v>
       </c>
       <c r="F444" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="G444" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="H444" t="s">
         <v>7</v>
@@ -15497,13 +15635,13 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" t="s">
-        <v>787</v>
+        <v>748</v>
       </c>
       <c r="B445" t="s">
         <v>9</v>
       </c>
       <c r="C445" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="D445" t="s">
         <v>11</v>
@@ -15512,10 +15650,10 @@
         <v>7</v>
       </c>
       <c r="F445" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G445" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="H445" t="s">
         <v>7</v>
@@ -15523,13 +15661,13 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" t="s">
-        <v>787</v>
+        <v>748</v>
       </c>
       <c r="B446" t="s">
         <v>9</v>
       </c>
       <c r="C446" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="D446" t="s">
         <v>11</v>
@@ -15538,10 +15676,10 @@
         <v>7</v>
       </c>
       <c r="F446" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="G446" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="H446" t="s">
         <v>7</v>
@@ -15549,13 +15687,13 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" t="s">
+        <v>786</v>
+      </c>
+      <c r="B447" t="s">
         <v>787</v>
       </c>
-      <c r="B447" t="s">
-        <v>9</v>
-      </c>
       <c r="C447" t="s">
-        <v>26</v>
+        <v>788</v>
       </c>
       <c r="D447" t="s">
         <v>11</v>
@@ -15564,10 +15702,10 @@
         <v>7</v>
       </c>
       <c r="F447" t="s">
-        <v>798</v>
+        <v>357</v>
       </c>
       <c r="G447" t="s">
-        <v>799</v>
+        <v>358</v>
       </c>
       <c r="H447" t="s">
         <v>7</v>
@@ -15575,13 +15713,13 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="B448" t="s">
-        <v>9</v>
+        <v>787</v>
       </c>
       <c r="C448" t="s">
-        <v>10</v>
+        <v>789</v>
       </c>
       <c r="D448" t="s">
         <v>11</v>
@@ -15590,10 +15728,10 @@
         <v>7</v>
       </c>
       <c r="F448" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="G448" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="H448" t="s">
         <v>7</v>
@@ -15601,13 +15739,13 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="B449" t="s">
-        <v>9</v>
+        <v>787</v>
       </c>
       <c r="C449" t="s">
-        <v>16</v>
+        <v>791</v>
       </c>
       <c r="D449" t="s">
         <v>11</v>
@@ -15616,10 +15754,10 @@
         <v>7</v>
       </c>
       <c r="F449" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="G449" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="H449" t="s">
         <v>7</v>
@@ -15627,13 +15765,13 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="B450" t="s">
-        <v>9</v>
+        <v>787</v>
       </c>
       <c r="C450" t="s">
-        <v>19</v>
+        <v>794</v>
       </c>
       <c r="D450" t="s">
         <v>11</v>
@@ -15642,10 +15780,10 @@
         <v>7</v>
       </c>
       <c r="F450" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="G450" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="H450" t="s">
         <v>7</v>
@@ -15653,13 +15791,13 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B451" t="s">
         <v>9</v>
       </c>
       <c r="C451" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D451" t="s">
         <v>11</v>
@@ -15668,10 +15806,10 @@
         <v>7</v>
       </c>
       <c r="F451" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="G451" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="H451" t="s">
         <v>7</v>
@@ -15679,25 +15817,25 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" t="s">
+        <v>797</v>
+      </c>
+      <c r="B452" t="s">
+        <v>9</v>
+      </c>
+      <c r="C452" t="s">
+        <v>16</v>
+      </c>
+      <c r="D452" t="s">
+        <v>11</v>
+      </c>
+      <c r="E452" t="s">
+        <v>7</v>
+      </c>
+      <c r="F452" t="s">
         <v>800</v>
       </c>
-      <c r="B452" t="s">
-        <v>9</v>
-      </c>
-      <c r="C452" t="s">
-        <v>25</v>
-      </c>
-      <c r="D452" t="s">
-        <v>11</v>
-      </c>
-      <c r="E452" t="s">
-        <v>7</v>
-      </c>
-      <c r="F452" t="s">
-        <v>790</v>
-      </c>
       <c r="G452" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="H452" t="s">
         <v>7</v>
@@ -15705,13 +15843,13 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B453" t="s">
         <v>9</v>
       </c>
       <c r="C453" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D453" t="s">
         <v>11</v>
@@ -15720,10 +15858,10 @@
         <v>7</v>
       </c>
       <c r="F453" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="G453" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="H453" t="s">
         <v>7</v>
@@ -15731,13 +15869,13 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B454" t="s">
         <v>9</v>
       </c>
       <c r="C454" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D454" t="s">
         <v>11</v>
@@ -15746,10 +15884,10 @@
         <v>7</v>
       </c>
       <c r="F454" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="G454" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="H454" t="s">
         <v>7</v>
@@ -15757,13 +15895,13 @@
     </row>
     <row r="455" spans="1:8">
       <c r="A455" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B455" t="s">
         <v>9</v>
       </c>
       <c r="C455" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="D455" t="s">
         <v>11</v>
@@ -15772,10 +15910,10 @@
         <v>7</v>
       </c>
       <c r="F455" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="G455" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="H455" t="s">
         <v>7</v>
@@ -15783,13 +15921,13 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B456" t="s">
         <v>9</v>
       </c>
       <c r="C456" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="D456" t="s">
         <v>11</v>
@@ -15798,10 +15936,10 @@
         <v>7</v>
       </c>
       <c r="F456" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="G456" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="H456" t="s">
         <v>7</v>
@@ -15809,13 +15947,13 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="B457" t="s">
         <v>9</v>
       </c>
       <c r="C457" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="D457" t="s">
         <v>11</v>
@@ -15824,10 +15962,10 @@
         <v>7</v>
       </c>
       <c r="F457" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="G457" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="H457" t="s">
         <v>7</v>
@@ -15835,13 +15973,13 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="B458" t="s">
         <v>9</v>
       </c>
       <c r="C458" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="D458" t="s">
         <v>11</v>
@@ -15850,10 +15988,10 @@
         <v>7</v>
       </c>
       <c r="F458" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="G458" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="H458" t="s">
         <v>7</v>
@@ -15861,13 +15999,13 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="B459" t="s">
         <v>9</v>
       </c>
       <c r="C459" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="D459" t="s">
         <v>11</v>
@@ -15876,10 +16014,10 @@
         <v>7</v>
       </c>
       <c r="F459" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="G459" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="H459" t="s">
         <v>7</v>
@@ -15887,13 +16025,13 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="B460" t="s">
-        <v>823</v>
+        <v>9</v>
       </c>
       <c r="C460" t="s">
-        <v>824</v>
+        <v>22</v>
       </c>
       <c r="D460" t="s">
         <v>11</v>
@@ -15902,10 +16040,10 @@
         <v>7</v>
       </c>
       <c r="F460" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="G460" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="H460" t="s">
         <v>7</v>
@@ -15913,13 +16051,13 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="B461" t="s">
-        <v>823</v>
+        <v>9</v>
       </c>
       <c r="C461" t="s">
-        <v>827</v>
+        <v>25</v>
       </c>
       <c r="D461" t="s">
         <v>11</v>
@@ -15928,10 +16066,10 @@
         <v>7</v>
       </c>
       <c r="F461" t="s">
-        <v>33</v>
+        <v>800</v>
       </c>
       <c r="G461" t="s">
-        <v>34</v>
+        <v>801</v>
       </c>
       <c r="H461" t="s">
         <v>7</v>
@@ -15939,13 +16077,13 @@
     </row>
     <row r="462" spans="1:8">
       <c r="A462" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="B462" t="s">
-        <v>823</v>
+        <v>9</v>
       </c>
       <c r="C462" t="s">
-        <v>828</v>
+        <v>26</v>
       </c>
       <c r="D462" t="s">
         <v>11</v>
@@ -15954,10 +16092,10 @@
         <v>7</v>
       </c>
       <c r="F462" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="G462" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="H462" t="s">
         <v>7</v>
@@ -15965,25 +16103,25 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" t="s">
+        <v>810</v>
+      </c>
+      <c r="B463" t="s">
+        <v>9</v>
+      </c>
+      <c r="C463" t="s">
+        <v>29</v>
+      </c>
+      <c r="D463" t="s">
+        <v>11</v>
+      </c>
+      <c r="E463" t="s">
+        <v>7</v>
+      </c>
+      <c r="F463" t="s">
+        <v>821</v>
+      </c>
+      <c r="G463" t="s">
         <v>822</v>
-      </c>
-      <c r="B463" t="s">
-        <v>823</v>
-      </c>
-      <c r="C463" t="s">
-        <v>831</v>
-      </c>
-      <c r="D463" t="s">
-        <v>11</v>
-      </c>
-      <c r="E463" t="s">
-        <v>7</v>
-      </c>
-      <c r="F463" t="s">
-        <v>832</v>
-      </c>
-      <c r="G463" t="s">
-        <v>1178</v>
       </c>
       <c r="H463" t="s">
         <v>7</v>
@@ -15991,25 +16129,25 @@
     </row>
     <row r="464" spans="1:8">
       <c r="A464" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="B464" t="s">
+        <v>9</v>
+      </c>
+      <c r="C464" t="s">
+        <v>127</v>
+      </c>
+      <c r="D464" t="s">
+        <v>11</v>
+      </c>
+      <c r="E464" t="s">
+        <v>7</v>
+      </c>
+      <c r="F464" t="s">
         <v>823</v>
       </c>
-      <c r="C464" t="s">
-        <v>833</v>
-      </c>
-      <c r="D464" t="s">
-        <v>11</v>
-      </c>
-      <c r="E464" t="s">
-        <v>7</v>
-      </c>
-      <c r="F464" t="s">
-        <v>790</v>
-      </c>
       <c r="G464" t="s">
-        <v>791</v>
+        <v>824</v>
       </c>
       <c r="H464" t="s">
         <v>7</v>
@@ -16017,13 +16155,13 @@
     </row>
     <row r="465" spans="1:8">
       <c r="A465" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="B465" t="s">
-        <v>823</v>
+        <v>9</v>
       </c>
       <c r="C465" t="s">
-        <v>834</v>
+        <v>130</v>
       </c>
       <c r="D465" t="s">
         <v>11</v>
@@ -16032,10 +16170,10 @@
         <v>7</v>
       </c>
       <c r="F465" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="G465" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="H465" t="s">
         <v>7</v>
@@ -16043,13 +16181,13 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="B466" t="s">
-        <v>823</v>
+        <v>9</v>
       </c>
       <c r="C466" t="s">
-        <v>837</v>
+        <v>133</v>
       </c>
       <c r="D466" t="s">
         <v>11</v>
@@ -16058,10 +16196,10 @@
         <v>7</v>
       </c>
       <c r="F466" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="G466" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="H466" t="s">
         <v>7</v>
@@ -16069,13 +16207,13 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" t="s">
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="B467" t="s">
-        <v>841</v>
+        <v>9</v>
       </c>
       <c r="C467" t="s">
-        <v>842</v>
+        <v>136</v>
       </c>
       <c r="D467" t="s">
         <v>11</v>
@@ -16084,10 +16222,10 @@
         <v>7</v>
       </c>
       <c r="F467" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="G467" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="H467" t="s">
         <v>7</v>
@@ -16095,13 +16233,13 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" t="s">
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="B468" t="s">
-        <v>841</v>
+        <v>9</v>
       </c>
       <c r="C468" t="s">
-        <v>843</v>
+        <v>138</v>
       </c>
       <c r="D468" t="s">
         <v>11</v>
@@ -16110,10 +16248,10 @@
         <v>7</v>
       </c>
       <c r="F468" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="G468" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="H468" t="s">
         <v>7</v>
@@ -16121,13 +16259,13 @@
     </row>
     <row r="469" spans="1:8">
       <c r="A469" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="B469" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="C469" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="D469" t="s">
         <v>11</v>
@@ -16136,10 +16274,10 @@
         <v>7</v>
       </c>
       <c r="F469" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="G469" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="H469" t="s">
         <v>7</v>
@@ -16147,13 +16285,13 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="B470" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="C470" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="D470" t="s">
         <v>11</v>
@@ -16162,10 +16300,10 @@
         <v>7</v>
       </c>
       <c r="F470" t="s">
-        <v>850</v>
+        <v>33</v>
       </c>
       <c r="G470" t="s">
-        <v>851</v>
+        <v>34</v>
       </c>
       <c r="H470" t="s">
         <v>7</v>
@@ -16173,13 +16311,13 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="B471" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="C471" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="D471" t="s">
         <v>11</v>
@@ -16188,10 +16326,10 @@
         <v>7</v>
       </c>
       <c r="F471" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="G471" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="H471" t="s">
         <v>7</v>
@@ -16199,13 +16337,13 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="B472" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="C472" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="D472" t="s">
         <v>11</v>
@@ -16214,10 +16352,10 @@
         <v>7</v>
       </c>
       <c r="F472" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="G472" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="H472" t="s">
         <v>7</v>
@@ -16225,13 +16363,13 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" t="s">
-        <v>858</v>
+        <v>832</v>
       </c>
       <c r="B473" t="s">
-        <v>859</v>
+        <v>833</v>
       </c>
       <c r="C473" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="D473" t="s">
         <v>11</v>
@@ -16240,10 +16378,10 @@
         <v>7</v>
       </c>
       <c r="F473" t="s">
-        <v>861</v>
+        <v>800</v>
       </c>
       <c r="G473" t="s">
-        <v>862</v>
+        <v>801</v>
       </c>
       <c r="H473" t="s">
         <v>7</v>
@@ -16251,13 +16389,13 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" t="s">
-        <v>858</v>
+        <v>832</v>
       </c>
       <c r="B474" t="s">
-        <v>859</v>
+        <v>833</v>
       </c>
       <c r="C474" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="D474" t="s">
         <v>11</v>
@@ -16266,10 +16404,10 @@
         <v>7</v>
       </c>
       <c r="F474" t="s">
-        <v>864</v>
+        <v>846</v>
       </c>
       <c r="G474" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="H474" t="s">
         <v>7</v>
@@ -16277,13 +16415,13 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" t="s">
-        <v>858</v>
+        <v>832</v>
       </c>
       <c r="B475" t="s">
-        <v>859</v>
+        <v>833</v>
       </c>
       <c r="C475" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
       <c r="D475" t="s">
         <v>11</v>
@@ -16292,10 +16430,10 @@
         <v>7</v>
       </c>
       <c r="F475" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
       <c r="G475" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
       <c r="H475" t="s">
         <v>7</v>
@@ -16303,13 +16441,13 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="B476" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="C476" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="D476" t="s">
         <v>11</v>
@@ -16318,10 +16456,10 @@
         <v>7</v>
       </c>
       <c r="F476" t="s">
-        <v>870</v>
+        <v>846</v>
       </c>
       <c r="G476" t="s">
-        <v>871</v>
+        <v>847</v>
       </c>
       <c r="H476" t="s">
         <v>7</v>
@@ -16329,13 +16467,13 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="B477" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="C477" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="D477" t="s">
         <v>11</v>
@@ -16344,10 +16482,10 @@
         <v>7</v>
       </c>
       <c r="F477" t="s">
-        <v>875</v>
+        <v>849</v>
       </c>
       <c r="G477" t="s">
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="H477" t="s">
         <v>7</v>
@@ -16355,13 +16493,13 @@
     </row>
     <row r="478" spans="1:8">
       <c r="A478" t="s">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="B478" t="s">
-        <v>873</v>
+        <v>856</v>
       </c>
       <c r="C478" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
       <c r="D478" t="s">
         <v>11</v>
@@ -16370,10 +16508,10 @@
         <v>7</v>
       </c>
       <c r="F478" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="G478" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="H478" t="s">
         <v>7</v>
@@ -16381,13 +16519,13 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" t="s">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="B479" t="s">
-        <v>873</v>
+        <v>856</v>
       </c>
       <c r="C479" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="D479" t="s">
         <v>11</v>
@@ -16396,10 +16534,10 @@
         <v>7</v>
       </c>
       <c r="F479" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
       <c r="G479" t="s">
-        <v>882</v>
+        <v>862</v>
       </c>
       <c r="H479" t="s">
         <v>7</v>
@@ -16407,13 +16545,13 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" t="s">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="B480" t="s">
-        <v>873</v>
+        <v>856</v>
       </c>
       <c r="C480" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="D480" t="s">
         <v>11</v>
@@ -16422,10 +16560,10 @@
         <v>7</v>
       </c>
       <c r="F480" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="G480" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
       <c r="H480" t="s">
         <v>7</v>
@@ -16433,13 +16571,13 @@
     </row>
     <row r="481" spans="1:8">
       <c r="A481" t="s">
-        <v>886</v>
+        <v>855</v>
       </c>
       <c r="B481" t="s">
-        <v>887</v>
+        <v>856</v>
       </c>
       <c r="C481" t="s">
-        <v>888</v>
+        <v>866</v>
       </c>
       <c r="D481" t="s">
         <v>11</v>
@@ -16448,10 +16586,10 @@
         <v>7</v>
       </c>
       <c r="F481" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
       <c r="G481" t="s">
-        <v>890</v>
+        <v>868</v>
       </c>
       <c r="H481" t="s">
         <v>7</v>
@@ -16459,13 +16597,13 @@
     </row>
     <row r="482" spans="1:8">
       <c r="A482" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="B482" t="s">
-        <v>887</v>
+        <v>870</v>
       </c>
       <c r="C482" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="D482" t="s">
         <v>11</v>
@@ -16474,10 +16612,10 @@
         <v>7</v>
       </c>
       <c r="F482" t="s">
-        <v>835</v>
+        <v>872</v>
       </c>
       <c r="G482" t="s">
-        <v>836</v>
+        <v>873</v>
       </c>
       <c r="H482" t="s">
         <v>7</v>
@@ -16485,13 +16623,13 @@
     </row>
     <row r="483" spans="1:8">
       <c r="A483" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="B483" t="s">
-        <v>887</v>
+        <v>870</v>
       </c>
       <c r="C483" t="s">
-        <v>892</v>
+        <v>874</v>
       </c>
       <c r="D483" t="s">
         <v>11</v>
@@ -16500,10 +16638,10 @@
         <v>7</v>
       </c>
       <c r="F483" t="s">
-        <v>838</v>
+        <v>875</v>
       </c>
       <c r="G483" t="s">
-        <v>839</v>
+        <v>876</v>
       </c>
       <c r="H483" t="s">
         <v>7</v>
@@ -16511,13 +16649,13 @@
     </row>
     <row r="484" spans="1:8">
       <c r="A484" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="B484" t="s">
-        <v>887</v>
+        <v>870</v>
       </c>
       <c r="C484" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="D484" t="s">
         <v>11</v>
@@ -16526,10 +16664,10 @@
         <v>7</v>
       </c>
       <c r="F484" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="G484" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="H484" t="s">
         <v>7</v>
@@ -16537,13 +16675,13 @@
     </row>
     <row r="485" spans="1:8">
       <c r="A485" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="B485" t="s">
-        <v>887</v>
+        <v>870</v>
       </c>
       <c r="C485" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="D485" t="s">
         <v>11</v>
@@ -16552,10 +16690,10 @@
         <v>7</v>
       </c>
       <c r="F485" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="G485" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="H485" t="s">
         <v>7</v>
@@ -16563,25 +16701,25 @@
     </row>
     <row r="486" spans="1:8">
       <c r="A486" t="s">
+        <v>883</v>
+      </c>
+      <c r="B486" t="s">
+        <v>884</v>
+      </c>
+      <c r="C486" t="s">
+        <v>885</v>
+      </c>
+      <c r="D486" t="s">
+        <v>11</v>
+      </c>
+      <c r="E486" t="s">
+        <v>7</v>
+      </c>
+      <c r="F486" t="s">
         <v>886</v>
       </c>
-      <c r="B486" t="s">
+      <c r="G486" t="s">
         <v>887</v>
-      </c>
-      <c r="C486" t="s">
-        <v>899</v>
-      </c>
-      <c r="D486" t="s">
-        <v>11</v>
-      </c>
-      <c r="E486" t="s">
-        <v>7</v>
-      </c>
-      <c r="F486" t="s">
-        <v>900</v>
-      </c>
-      <c r="G486" t="s">
-        <v>901</v>
       </c>
       <c r="H486" t="s">
         <v>7</v>
@@ -16589,13 +16727,13 @@
     </row>
     <row r="487" spans="1:8">
       <c r="A487" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B487" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C487" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="D487" t="s">
         <v>11</v>
@@ -16604,10 +16742,10 @@
         <v>7</v>
       </c>
       <c r="F487" t="s">
-        <v>761</v>
+        <v>889</v>
       </c>
       <c r="G487" t="s">
-        <v>762</v>
+        <v>890</v>
       </c>
       <c r="H487" t="s">
         <v>7</v>
@@ -16615,13 +16753,13 @@
     </row>
     <row r="488" spans="1:8">
       <c r="A488" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B488" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C488" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="D488" t="s">
         <v>11</v>
@@ -16630,10 +16768,10 @@
         <v>7</v>
       </c>
       <c r="F488" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="G488" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="H488" t="s">
         <v>7</v>
@@ -16641,13 +16779,13 @@
     </row>
     <row r="489" spans="1:8">
       <c r="A489" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B489" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C489" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="D489" t="s">
         <v>11</v>
@@ -16656,10 +16794,10 @@
         <v>7</v>
       </c>
       <c r="F489" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="G489" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="H489" t="s">
         <v>7</v>
@@ -16667,13 +16805,13 @@
     </row>
     <row r="490" spans="1:8">
       <c r="A490" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="B490" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="C490" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="D490" t="s">
         <v>11</v>
@@ -16682,10 +16820,10 @@
         <v>7</v>
       </c>
       <c r="F490" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="G490" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="H490" t="s">
         <v>7</v>
@@ -16693,13 +16831,13 @@
     </row>
     <row r="491" spans="1:8">
       <c r="A491" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="B491" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="C491" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="D491" t="s">
         <v>11</v>
@@ -16708,10 +16846,10 @@
         <v>7</v>
       </c>
       <c r="F491" t="s">
-        <v>913</v>
+        <v>846</v>
       </c>
       <c r="G491" t="s">
-        <v>914</v>
+        <v>847</v>
       </c>
       <c r="H491" t="s">
         <v>7</v>
@@ -16719,13 +16857,13 @@
     </row>
     <row r="492" spans="1:8">
       <c r="A492" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="B492" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="C492" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="D492" t="s">
         <v>11</v>
@@ -16734,10 +16872,10 @@
         <v>7</v>
       </c>
       <c r="F492" t="s">
-        <v>916</v>
+        <v>849</v>
       </c>
       <c r="G492" t="s">
-        <v>916</v>
+        <v>850</v>
       </c>
       <c r="H492" t="s">
         <v>7</v>
@@ -16745,13 +16883,13 @@
     </row>
     <row r="493" spans="1:8">
       <c r="A493" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="B493" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="C493" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="D493" t="s">
         <v>11</v>
@@ -16760,10 +16898,10 @@
         <v>7</v>
       </c>
       <c r="F493" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="G493" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="H493" t="s">
         <v>7</v>
@@ -16771,13 +16909,13 @@
     </row>
     <row r="494" spans="1:8">
       <c r="A494" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="B494" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="C494" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="D494" t="s">
         <v>11</v>
@@ -16786,10 +16924,10 @@
         <v>7</v>
       </c>
       <c r="F494" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="G494" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="H494" t="s">
         <v>7</v>
@@ -16797,13 +16935,13 @@
     </row>
     <row r="495" spans="1:8">
       <c r="A495" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="B495" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="C495" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="D495" t="s">
         <v>11</v>
@@ -16812,10 +16950,10 @@
         <v>7</v>
       </c>
       <c r="F495" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="G495" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="H495" t="s">
         <v>7</v>
@@ -16823,13 +16961,13 @@
     </row>
     <row r="496" spans="1:8">
       <c r="A496" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="B496" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="C496" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="D496" t="s">
         <v>11</v>
@@ -16838,10 +16976,10 @@
         <v>7</v>
       </c>
       <c r="F496" t="s">
-        <v>927</v>
+        <v>771</v>
       </c>
       <c r="G496" t="s">
-        <v>927</v>
+        <v>772</v>
       </c>
       <c r="H496" t="s">
         <v>7</v>
@@ -16849,13 +16987,13 @@
     </row>
     <row r="497" spans="1:8">
       <c r="A497" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="B497" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="C497" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="D497" t="s">
         <v>11</v>
@@ -16864,10 +17002,10 @@
         <v>7</v>
       </c>
       <c r="F497" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="G497" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="H497" t="s">
         <v>7</v>
@@ -16875,13 +17013,13 @@
     </row>
     <row r="498" spans="1:8">
       <c r="A498" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="B498" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="C498" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="D498" t="s">
         <v>11</v>
@@ -16890,10 +17028,10 @@
         <v>7</v>
       </c>
       <c r="F498" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="G498" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="H498" t="s">
         <v>7</v>
@@ -16901,13 +17039,13 @@
     </row>
     <row r="499" spans="1:8">
       <c r="A499" t="s">
-        <v>933</v>
+        <v>897</v>
       </c>
       <c r="B499" t="s">
-        <v>934</v>
+        <v>898</v>
       </c>
       <c r="C499" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="D499" t="s">
         <v>11</v>
@@ -16916,10 +17054,10 @@
         <v>7</v>
       </c>
       <c r="F499" t="s">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="G499" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
       <c r="H499" t="s">
         <v>7</v>
@@ -16927,13 +17065,13 @@
     </row>
     <row r="500" spans="1:8">
       <c r="A500" t="s">
-        <v>933</v>
+        <v>897</v>
       </c>
       <c r="B500" t="s">
-        <v>934</v>
+        <v>898</v>
       </c>
       <c r="C500" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="D500" t="s">
         <v>11</v>
@@ -16942,10 +17080,10 @@
         <v>7</v>
       </c>
       <c r="F500" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
       <c r="G500" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="H500" t="s">
         <v>7</v>
@@ -16953,13 +17091,13 @@
     </row>
     <row r="501" spans="1:8">
       <c r="A501" t="s">
-        <v>933</v>
+        <v>897</v>
       </c>
       <c r="B501" t="s">
-        <v>934</v>
+        <v>898</v>
       </c>
       <c r="C501" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
       <c r="D501" t="s">
         <v>11</v>
@@ -16968,10 +17106,10 @@
         <v>7</v>
       </c>
       <c r="F501" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="G501" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="H501" t="s">
         <v>7</v>
@@ -16979,13 +17117,13 @@
     </row>
     <row r="502" spans="1:8">
       <c r="A502" t="s">
-        <v>933</v>
+        <v>897</v>
       </c>
       <c r="B502" t="s">
-        <v>934</v>
+        <v>898</v>
       </c>
       <c r="C502" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="D502" t="s">
         <v>11</v>
@@ -16994,10 +17132,10 @@
         <v>7</v>
       </c>
       <c r="F502" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
       <c r="G502" t="s">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="H502" t="s">
         <v>7</v>
@@ -17005,25 +17143,25 @@
     </row>
     <row r="503" spans="1:8">
       <c r="A503" t="s">
+        <v>897</v>
+      </c>
+      <c r="B503" t="s">
+        <v>898</v>
+      </c>
+      <c r="C503" t="s">
+        <v>931</v>
+      </c>
+      <c r="D503" t="s">
+        <v>11</v>
+      </c>
+      <c r="E503" t="s">
+        <v>7</v>
+      </c>
+      <c r="F503" t="s">
+        <v>932</v>
+      </c>
+      <c r="G503" t="s">
         <v>933</v>
-      </c>
-      <c r="B503" t="s">
-        <v>934</v>
-      </c>
-      <c r="C503" t="s">
-        <v>946</v>
-      </c>
-      <c r="D503" t="s">
-        <v>11</v>
-      </c>
-      <c r="E503" t="s">
-        <v>7</v>
-      </c>
-      <c r="F503" t="s">
-        <v>947</v>
-      </c>
-      <c r="G503" t="s">
-        <v>948</v>
       </c>
       <c r="H503" t="s">
         <v>7</v>
@@ -17031,14 +17169,14 @@
     </row>
     <row r="504" spans="1:8">
       <c r="A504" t="s">
-        <v>933</v>
+        <v>897</v>
       </c>
       <c r="B504" t="s">
+        <v>898</v>
+      </c>
+      <c r="C504" t="s">
         <v>934</v>
       </c>
-      <c r="C504" t="s">
-        <v>949</v>
-      </c>
       <c r="D504" t="s">
         <v>11</v>
       </c>
@@ -17046,10 +17184,10 @@
         <v>7</v>
       </c>
       <c r="F504" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
       <c r="G504" t="s">
-        <v>951</v>
+        <v>936</v>
       </c>
       <c r="H504" t="s">
         <v>7</v>
@@ -17057,13 +17195,13 @@
     </row>
     <row r="505" spans="1:8">
       <c r="A505" t="s">
-        <v>952</v>
+        <v>897</v>
       </c>
       <c r="B505" t="s">
-        <v>953</v>
+        <v>898</v>
       </c>
       <c r="C505" t="s">
-        <v>954</v>
+        <v>937</v>
       </c>
       <c r="D505" t="s">
         <v>11</v>
@@ -17072,10 +17210,10 @@
         <v>7</v>
       </c>
       <c r="F505" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
       <c r="G505" t="s">
-        <v>956</v>
+        <v>938</v>
       </c>
       <c r="H505" t="s">
         <v>7</v>
@@ -17083,13 +17221,13 @@
     </row>
     <row r="506" spans="1:8">
       <c r="A506" t="s">
-        <v>952</v>
+        <v>897</v>
       </c>
       <c r="B506" t="s">
-        <v>953</v>
+        <v>898</v>
       </c>
       <c r="C506" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
       <c r="D506" t="s">
         <v>11</v>
@@ -17098,10 +17236,10 @@
         <v>7</v>
       </c>
       <c r="F506" t="s">
-        <v>958</v>
+        <v>940</v>
       </c>
       <c r="G506" t="s">
-        <v>959</v>
+        <v>941</v>
       </c>
       <c r="H506" t="s">
         <v>7</v>
@@ -17109,13 +17247,13 @@
     </row>
     <row r="507" spans="1:8">
       <c r="A507" t="s">
-        <v>952</v>
+        <v>897</v>
       </c>
       <c r="B507" t="s">
-        <v>953</v>
+        <v>898</v>
       </c>
       <c r="C507" t="s">
-        <v>960</v>
+        <v>942</v>
       </c>
       <c r="D507" t="s">
         <v>11</v>
@@ -17124,10 +17262,10 @@
         <v>7</v>
       </c>
       <c r="F507" t="s">
-        <v>961</v>
+        <v>943</v>
       </c>
       <c r="G507" t="s">
-        <v>962</v>
+        <v>943</v>
       </c>
       <c r="H507" t="s">
         <v>7</v>
@@ -17135,13 +17273,13 @@
     </row>
     <row r="508" spans="1:8">
       <c r="A508" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
       <c r="B508" t="s">
-        <v>420</v>
+        <v>945</v>
       </c>
       <c r="C508" t="s">
-        <v>421</v>
+        <v>946</v>
       </c>
       <c r="D508" t="s">
         <v>11</v>
@@ -17150,10 +17288,10 @@
         <v>7</v>
       </c>
       <c r="F508" t="s">
-        <v>586</v>
+        <v>947</v>
       </c>
       <c r="G508" t="s">
-        <v>586</v>
+        <v>947</v>
       </c>
       <c r="H508" t="s">
         <v>7</v>
@@ -17161,13 +17299,13 @@
     </row>
     <row r="509" spans="1:8">
       <c r="A509" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
       <c r="B509" t="s">
-        <v>420</v>
+        <v>945</v>
       </c>
       <c r="C509" t="s">
-        <v>424</v>
+        <v>948</v>
       </c>
       <c r="D509" t="s">
         <v>11</v>
@@ -17176,10 +17314,10 @@
         <v>7</v>
       </c>
       <c r="F509" t="s">
-        <v>586</v>
+        <v>949</v>
       </c>
       <c r="G509" t="s">
-        <v>586</v>
+        <v>950</v>
       </c>
       <c r="H509" t="s">
         <v>7</v>
@@ -17187,13 +17325,13 @@
     </row>
     <row r="510" spans="1:8">
       <c r="A510" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
       <c r="B510" t="s">
-        <v>420</v>
+        <v>945</v>
       </c>
       <c r="C510" t="s">
-        <v>427</v>
+        <v>951</v>
       </c>
       <c r="D510" t="s">
         <v>11</v>
@@ -17202,10 +17340,10 @@
         <v>7</v>
       </c>
       <c r="F510" t="s">
-        <v>428</v>
+        <v>952</v>
       </c>
       <c r="G510" t="s">
-        <v>429</v>
+        <v>953</v>
       </c>
       <c r="H510" t="s">
         <v>7</v>
@@ -17213,13 +17351,13 @@
     </row>
     <row r="511" spans="1:8">
       <c r="A511" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
       <c r="B511" t="s">
-        <v>420</v>
+        <v>945</v>
       </c>
       <c r="C511" t="s">
-        <v>430</v>
+        <v>954</v>
       </c>
       <c r="D511" t="s">
         <v>11</v>
@@ -17228,10 +17366,10 @@
         <v>7</v>
       </c>
       <c r="F511" t="s">
-        <v>431</v>
+        <v>955</v>
       </c>
       <c r="G511" t="s">
-        <v>432</v>
+        <v>956</v>
       </c>
       <c r="H511" t="s">
         <v>7</v>
@@ -17239,13 +17377,13 @@
     </row>
     <row r="512" spans="1:8">
       <c r="A512" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
       <c r="B512" t="s">
-        <v>420</v>
+        <v>945</v>
       </c>
       <c r="C512" t="s">
-        <v>433</v>
+        <v>957</v>
       </c>
       <c r="D512" t="s">
         <v>11</v>
@@ -17254,10 +17392,10 @@
         <v>7</v>
       </c>
       <c r="F512" t="s">
-        <v>431</v>
+        <v>958</v>
       </c>
       <c r="G512" t="s">
-        <v>432</v>
+        <v>959</v>
       </c>
       <c r="H512" t="s">
         <v>7</v>
@@ -17265,13 +17403,13 @@
     </row>
     <row r="513" spans="1:8">
       <c r="A513" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
       <c r="B513" t="s">
-        <v>420</v>
+        <v>945</v>
       </c>
       <c r="C513" t="s">
-        <v>434</v>
+        <v>960</v>
       </c>
       <c r="D513" t="s">
         <v>11</v>
@@ -17280,10 +17418,10 @@
         <v>7</v>
       </c>
       <c r="F513" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="G513" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="H513" t="s">
         <v>7</v>
@@ -17294,10 +17432,10 @@
         <v>963</v>
       </c>
       <c r="B514" t="s">
-        <v>420</v>
+        <v>964</v>
       </c>
       <c r="C514" t="s">
-        <v>437</v>
+        <v>965</v>
       </c>
       <c r="D514" t="s">
         <v>11</v>
@@ -17306,10 +17444,10 @@
         <v>7</v>
       </c>
       <c r="F514" t="s">
-        <v>305</v>
+        <v>966</v>
       </c>
       <c r="G514" t="s">
-        <v>306</v>
+        <v>967</v>
       </c>
       <c r="H514" t="s">
         <v>7</v>
@@ -17320,10 +17458,10 @@
         <v>963</v>
       </c>
       <c r="B515" t="s">
-        <v>420</v>
+        <v>964</v>
       </c>
       <c r="C515" t="s">
-        <v>440</v>
+        <v>968</v>
       </c>
       <c r="D515" t="s">
         <v>11</v>
@@ -17332,10 +17470,10 @@
         <v>7</v>
       </c>
       <c r="F515" t="s">
-        <v>438</v>
+        <v>969</v>
       </c>
       <c r="G515" t="s">
-        <v>439</v>
+        <v>970</v>
       </c>
       <c r="H515" t="s">
         <v>7</v>
@@ -17346,10 +17484,10 @@
         <v>963</v>
       </c>
       <c r="B516" t="s">
-        <v>420</v>
+        <v>964</v>
       </c>
       <c r="C516" t="s">
-        <v>441</v>
+        <v>971</v>
       </c>
       <c r="D516" t="s">
         <v>11</v>
@@ -17358,10 +17496,10 @@
         <v>7</v>
       </c>
       <c r="F516" t="s">
-        <v>443</v>
+        <v>972</v>
       </c>
       <c r="G516" t="s">
-        <v>444</v>
+        <v>973</v>
       </c>
       <c r="H516" t="s">
         <v>7</v>
@@ -17369,13 +17507,13 @@
     </row>
     <row r="517" spans="1:8">
       <c r="A517" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B517" t="s">
         <v>420</v>
       </c>
       <c r="C517" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="D517" t="s">
         <v>11</v>
@@ -17384,10 +17522,10 @@
         <v>7</v>
       </c>
       <c r="F517" t="s">
-        <v>446</v>
+        <v>586</v>
       </c>
       <c r="G517" t="s">
-        <v>447</v>
+        <v>586</v>
       </c>
       <c r="H517" t="s">
         <v>7</v>
@@ -17395,13 +17533,13 @@
     </row>
     <row r="518" spans="1:8">
       <c r="A518" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B518" t="s">
         <v>420</v>
       </c>
       <c r="C518" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="D518" t="s">
         <v>11</v>
@@ -17410,10 +17548,10 @@
         <v>7</v>
       </c>
       <c r="F518" t="s">
-        <v>449</v>
+        <v>586</v>
       </c>
       <c r="G518" t="s">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="H518" t="s">
         <v>7</v>
@@ -17421,13 +17559,13 @@
     </row>
     <row r="519" spans="1:8">
       <c r="A519" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B519" t="s">
         <v>420</v>
       </c>
       <c r="C519" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="D519" t="s">
         <v>11</v>
@@ -17436,10 +17574,10 @@
         <v>7</v>
       </c>
       <c r="F519" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="G519" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="H519" t="s">
         <v>7</v>
@@ -17447,13 +17585,13 @@
     </row>
     <row r="520" spans="1:8">
       <c r="A520" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B520" t="s">
         <v>420</v>
       </c>
       <c r="C520" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="D520" t="s">
         <v>11</v>
@@ -17462,10 +17600,10 @@
         <v>7</v>
       </c>
       <c r="F520" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="G520" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="H520" t="s">
         <v>7</v>
@@ -17473,13 +17611,13 @@
     </row>
     <row r="521" spans="1:8">
       <c r="A521" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B521" t="s">
         <v>420</v>
       </c>
       <c r="C521" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="D521" t="s">
         <v>11</v>
@@ -17488,10 +17626,10 @@
         <v>7</v>
       </c>
       <c r="F521" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="G521" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="H521" t="s">
         <v>7</v>
@@ -17499,13 +17637,13 @@
     </row>
     <row r="522" spans="1:8">
       <c r="A522" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B522" t="s">
         <v>420</v>
       </c>
       <c r="C522" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="D522" t="s">
         <v>11</v>
@@ -17514,10 +17652,10 @@
         <v>7</v>
       </c>
       <c r="F522" t="s">
-        <v>461</v>
+        <v>975</v>
       </c>
       <c r="G522" t="s">
-        <v>462</v>
+        <v>976</v>
       </c>
       <c r="H522" t="s">
         <v>7</v>
@@ -17525,13 +17663,13 @@
     </row>
     <row r="523" spans="1:8">
       <c r="A523" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B523" t="s">
         <v>420</v>
       </c>
       <c r="C523" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="D523" t="s">
         <v>11</v>
@@ -17540,10 +17678,10 @@
         <v>7</v>
       </c>
       <c r="F523" t="s">
-        <v>464</v>
+        <v>305</v>
       </c>
       <c r="G523" t="s">
-        <v>465</v>
+        <v>306</v>
       </c>
       <c r="H523" t="s">
         <v>7</v>
@@ -17551,13 +17689,13 @@
     </row>
     <row r="524" spans="1:8">
       <c r="A524" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B524" t="s">
         <v>420</v>
       </c>
       <c r="C524" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="D524" t="s">
         <v>11</v>
@@ -17566,10 +17704,10 @@
         <v>7</v>
       </c>
       <c r="F524" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="G524" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="H524" t="s">
         <v>7</v>
@@ -17577,13 +17715,13 @@
     </row>
     <row r="525" spans="1:8">
       <c r="A525" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B525" t="s">
         <v>420</v>
       </c>
       <c r="C525" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="D525" t="s">
         <v>11</v>
@@ -17592,10 +17730,10 @@
         <v>7</v>
       </c>
       <c r="F525" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="G525" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="H525" t="s">
         <v>7</v>
@@ -17603,13 +17741,13 @@
     </row>
     <row r="526" spans="1:8">
       <c r="A526" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B526" t="s">
         <v>420</v>
       </c>
       <c r="C526" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="D526" t="s">
         <v>11</v>
@@ -17618,10 +17756,10 @@
         <v>7</v>
       </c>
       <c r="F526" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="G526" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="H526" t="s">
         <v>7</v>
@@ -17629,13 +17767,13 @@
     </row>
     <row r="527" spans="1:8">
       <c r="A527" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B527" t="s">
         <v>420</v>
       </c>
       <c r="C527" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="D527" t="s">
         <v>11</v>
@@ -17644,10 +17782,10 @@
         <v>7</v>
       </c>
       <c r="F527" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="G527" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="H527" t="s">
         <v>7</v>
@@ -17655,13 +17793,13 @@
     </row>
     <row r="528" spans="1:8">
       <c r="A528" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B528" t="s">
         <v>420</v>
       </c>
       <c r="C528" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="D528" t="s">
         <v>11</v>
@@ -17670,10 +17808,10 @@
         <v>7</v>
       </c>
       <c r="F528" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="G528" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="H528" t="s">
         <v>7</v>
@@ -17681,13 +17819,13 @@
     </row>
     <row r="529" spans="1:8">
       <c r="A529" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B529" t="s">
         <v>420</v>
       </c>
       <c r="C529" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="D529" t="s">
         <v>11</v>
@@ -17696,10 +17834,10 @@
         <v>7</v>
       </c>
       <c r="F529" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="G529" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="H529" t="s">
         <v>7</v>
@@ -17707,13 +17845,13 @@
     </row>
     <row r="530" spans="1:8">
       <c r="A530" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B530" t="s">
         <v>420</v>
       </c>
       <c r="C530" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D530" t="s">
         <v>11</v>
@@ -17722,10 +17860,10 @@
         <v>7</v>
       </c>
       <c r="F530" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="G530" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="H530" t="s">
         <v>7</v>
@@ -17733,13 +17871,13 @@
     </row>
     <row r="531" spans="1:8">
       <c r="A531" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B531" t="s">
         <v>420</v>
       </c>
       <c r="C531" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="D531" t="s">
         <v>11</v>
@@ -17748,10 +17886,10 @@
         <v>7</v>
       </c>
       <c r="F531" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="G531" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="H531" t="s">
         <v>7</v>
@@ -17759,13 +17897,13 @@
     </row>
     <row r="532" spans="1:8">
       <c r="A532" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B532" t="s">
         <v>420</v>
       </c>
       <c r="C532" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="D532" t="s">
         <v>11</v>
@@ -17774,10 +17912,10 @@
         <v>7</v>
       </c>
       <c r="F532" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="G532" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="H532" t="s">
         <v>7</v>
@@ -17785,13 +17923,13 @@
     </row>
     <row r="533" spans="1:8">
       <c r="A533" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B533" t="s">
         <v>420</v>
       </c>
       <c r="C533" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="D533" t="s">
         <v>11</v>
@@ -17800,10 +17938,10 @@
         <v>7</v>
       </c>
       <c r="F533" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="G533" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="H533" t="s">
         <v>7</v>
@@ -17811,13 +17949,13 @@
     </row>
     <row r="534" spans="1:8">
       <c r="A534" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B534" t="s">
         <v>420</v>
       </c>
       <c r="C534" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="D534" t="s">
         <v>11</v>
@@ -17826,10 +17964,10 @@
         <v>7</v>
       </c>
       <c r="F534" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="G534" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="H534" t="s">
         <v>7</v>
@@ -17837,13 +17975,13 @@
     </row>
     <row r="535" spans="1:8">
       <c r="A535" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B535" t="s">
         <v>420</v>
       </c>
       <c r="C535" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="D535" t="s">
         <v>11</v>
@@ -17852,10 +17990,10 @@
         <v>7</v>
       </c>
       <c r="F535" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="G535" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="H535" t="s">
         <v>7</v>
@@ -17863,13 +18001,13 @@
     </row>
     <row r="536" spans="1:8">
       <c r="A536" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B536" t="s">
         <v>420</v>
       </c>
       <c r="C536" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="D536" t="s">
         <v>11</v>
@@ -17878,10 +18016,10 @@
         <v>7</v>
       </c>
       <c r="F536" t="s">
-        <v>966</v>
+        <v>476</v>
       </c>
       <c r="G536" t="s">
-        <v>967</v>
+        <v>477</v>
       </c>
       <c r="H536" t="s">
         <v>7</v>
@@ -17889,13 +18027,13 @@
     </row>
     <row r="537" spans="1:8">
       <c r="A537" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B537" t="s">
         <v>420</v>
       </c>
       <c r="C537" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="D537" t="s">
         <v>11</v>
@@ -17904,10 +18042,10 @@
         <v>7</v>
       </c>
       <c r="F537" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="G537" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="H537" t="s">
         <v>7</v>
@@ -17915,13 +18053,13 @@
     </row>
     <row r="538" spans="1:8">
       <c r="A538" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B538" t="s">
         <v>420</v>
       </c>
       <c r="C538" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="D538" t="s">
         <v>11</v>
@@ -17930,10 +18068,10 @@
         <v>7</v>
       </c>
       <c r="F538" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="G538" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="H538" t="s">
         <v>7</v>
@@ -17941,13 +18079,13 @@
     </row>
     <row r="539" spans="1:8">
       <c r="A539" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B539" t="s">
         <v>420</v>
       </c>
       <c r="C539" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="D539" t="s">
         <v>11</v>
@@ -17956,10 +18094,10 @@
         <v>7</v>
       </c>
       <c r="F539" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G539" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="H539" t="s">
         <v>7</v>
@@ -17967,13 +18105,13 @@
     </row>
     <row r="540" spans="1:8">
       <c r="A540" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B540" t="s">
         <v>420</v>
       </c>
       <c r="C540" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="D540" t="s">
         <v>11</v>
@@ -17982,10 +18120,10 @@
         <v>7</v>
       </c>
       <c r="F540" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="G540" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="H540" t="s">
         <v>7</v>
@@ -17993,13 +18131,13 @@
     </row>
     <row r="541" spans="1:8">
       <c r="A541" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B541" t="s">
         <v>420</v>
       </c>
       <c r="C541" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="D541" t="s">
         <v>11</v>
@@ -18008,10 +18146,10 @@
         <v>7</v>
       </c>
       <c r="F541" t="s">
-        <v>361</v>
+        <v>491</v>
       </c>
       <c r="G541" t="s">
-        <v>361</v>
+        <v>491</v>
       </c>
       <c r="H541" t="s">
         <v>7</v>
@@ -18019,13 +18157,13 @@
     </row>
     <row r="542" spans="1:8">
       <c r="A542" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B542" t="s">
         <v>420</v>
       </c>
       <c r="C542" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="D542" t="s">
         <v>11</v>
@@ -18034,10 +18172,10 @@
         <v>7</v>
       </c>
       <c r="F542" t="s">
-        <v>968</v>
+        <v>493</v>
       </c>
       <c r="G542" t="s">
-        <v>968</v>
+        <v>494</v>
       </c>
       <c r="H542" t="s">
         <v>7</v>
@@ -18045,13 +18183,13 @@
     </row>
     <row r="543" spans="1:8">
       <c r="A543" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B543" t="s">
         <v>420</v>
       </c>
       <c r="C543" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="D543" t="s">
         <v>11</v>
@@ -18060,10 +18198,10 @@
         <v>7</v>
       </c>
       <c r="F543" t="s">
-        <v>969</v>
+        <v>496</v>
       </c>
       <c r="G543" t="s">
-        <v>970</v>
+        <v>497</v>
       </c>
       <c r="H543" t="s">
         <v>7</v>
@@ -18071,13 +18209,13 @@
     </row>
     <row r="544" spans="1:8">
       <c r="A544" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B544" t="s">
         <v>420</v>
       </c>
       <c r="C544" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="D544" t="s">
         <v>11</v>
@@ -18086,10 +18224,10 @@
         <v>7</v>
       </c>
       <c r="F544" t="s">
-        <v>971</v>
+        <v>499</v>
       </c>
       <c r="G544" t="s">
-        <v>971</v>
+        <v>500</v>
       </c>
       <c r="H544" t="s">
         <v>7</v>
@@ -18097,13 +18235,13 @@
     </row>
     <row r="545" spans="1:8">
       <c r="A545" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B545" t="s">
         <v>420</v>
       </c>
       <c r="C545" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="D545" t="s">
         <v>11</v>
@@ -18112,10 +18250,10 @@
         <v>7</v>
       </c>
       <c r="F545" t="s">
-        <v>527</v>
+        <v>977</v>
       </c>
       <c r="G545" t="s">
-        <v>528</v>
+        <v>978</v>
       </c>
       <c r="H545" t="s">
         <v>7</v>
@@ -18123,13 +18261,13 @@
     </row>
     <row r="546" spans="1:8">
       <c r="A546" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B546" t="s">
         <v>420</v>
       </c>
       <c r="C546" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="D546" t="s">
         <v>11</v>
@@ -18138,10 +18276,10 @@
         <v>7</v>
       </c>
       <c r="F546" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="G546" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="H546" t="s">
         <v>7</v>
@@ -18149,13 +18287,13 @@
     </row>
     <row r="547" spans="1:8">
       <c r="A547" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B547" t="s">
         <v>420</v>
       </c>
       <c r="C547" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="D547" t="s">
         <v>11</v>
@@ -18164,10 +18302,10 @@
         <v>7</v>
       </c>
       <c r="F547" t="s">
-        <v>540</v>
+        <v>502</v>
       </c>
       <c r="G547" t="s">
-        <v>541</v>
+        <v>503</v>
       </c>
       <c r="H547" t="s">
         <v>7</v>
@@ -18175,13 +18313,13 @@
     </row>
     <row r="548" spans="1:8">
       <c r="A548" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B548" t="s">
         <v>420</v>
       </c>
       <c r="C548" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="D548" t="s">
         <v>11</v>
@@ -18190,10 +18328,10 @@
         <v>7</v>
       </c>
       <c r="F548" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="G548" t="s">
-        <v>544</v>
+        <v>509</v>
       </c>
       <c r="H548" t="s">
         <v>7</v>
@@ -18201,13 +18339,13 @@
     </row>
     <row r="549" spans="1:8">
       <c r="A549" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B549" t="s">
         <v>420</v>
       </c>
       <c r="C549" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="D549" t="s">
         <v>11</v>
@@ -18216,10 +18354,10 @@
         <v>7</v>
       </c>
       <c r="F549" t="s">
-        <v>546</v>
+        <v>511</v>
       </c>
       <c r="G549" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="H549" t="s">
         <v>7</v>
@@ -18227,13 +18365,13 @@
     </row>
     <row r="550" spans="1:8">
       <c r="A550" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B550" t="s">
         <v>420</v>
       </c>
       <c r="C550" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="D550" t="s">
         <v>11</v>
@@ -18242,10 +18380,10 @@
         <v>7</v>
       </c>
       <c r="F550" t="s">
-        <v>972</v>
+        <v>361</v>
       </c>
       <c r="G550" t="s">
-        <v>973</v>
+        <v>361</v>
       </c>
       <c r="H550" t="s">
         <v>7</v>
@@ -18253,13 +18391,13 @@
     </row>
     <row r="551" spans="1:8">
       <c r="A551" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B551" t="s">
         <v>420</v>
       </c>
       <c r="C551" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="D551" t="s">
         <v>11</v>
@@ -18268,10 +18406,10 @@
         <v>7</v>
       </c>
       <c r="F551" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="G551" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="H551" t="s">
         <v>7</v>
@@ -18279,13 +18417,13 @@
     </row>
     <row r="552" spans="1:8">
       <c r="A552" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="B552" t="s">
         <v>420</v>
       </c>
       <c r="C552" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="D552" t="s">
         <v>11</v>
@@ -18294,10 +18432,10 @@
         <v>7</v>
       </c>
       <c r="F552" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
       <c r="G552" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="H552" t="s">
         <v>7</v>
@@ -18308,10 +18446,10 @@
         <v>974</v>
       </c>
       <c r="B553" t="s">
-        <v>9</v>
+        <v>420</v>
       </c>
       <c r="C553" t="s">
-        <v>10</v>
+        <v>516</v>
       </c>
       <c r="D553" t="s">
         <v>11</v>
@@ -18320,10 +18458,10 @@
         <v>7</v>
       </c>
       <c r="F553" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
       <c r="G553" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="H553" t="s">
         <v>7</v>
@@ -18334,10 +18472,10 @@
         <v>974</v>
       </c>
       <c r="B554" t="s">
-        <v>9</v>
+        <v>420</v>
       </c>
       <c r="C554" t="s">
-        <v>16</v>
+        <v>519</v>
       </c>
       <c r="D554" t="s">
         <v>11</v>
@@ -18346,10 +18484,10 @@
         <v>7</v>
       </c>
       <c r="F554" t="s">
-        <v>977</v>
+        <v>527</v>
       </c>
       <c r="G554" t="s">
-        <v>978</v>
+        <v>528</v>
       </c>
       <c r="H554" t="s">
         <v>7</v>
@@ -18360,10 +18498,10 @@
         <v>974</v>
       </c>
       <c r="B555" t="s">
-        <v>9</v>
+        <v>420</v>
       </c>
       <c r="C555" t="s">
-        <v>19</v>
+        <v>520</v>
       </c>
       <c r="D555" t="s">
         <v>11</v>
@@ -18372,10 +18510,10 @@
         <v>7</v>
       </c>
       <c r="F555" t="s">
-        <v>979</v>
+        <v>527</v>
       </c>
       <c r="G555" t="s">
-        <v>980</v>
+        <v>528</v>
       </c>
       <c r="H555" t="s">
         <v>7</v>
@@ -18386,10 +18524,10 @@
         <v>974</v>
       </c>
       <c r="B556" t="s">
-        <v>9</v>
+        <v>420</v>
       </c>
       <c r="C556" t="s">
-        <v>22</v>
+        <v>521</v>
       </c>
       <c r="D556" t="s">
         <v>11</v>
@@ -18398,10 +18536,10 @@
         <v>7</v>
       </c>
       <c r="F556" t="s">
-        <v>981</v>
+        <v>540</v>
       </c>
       <c r="G556" t="s">
-        <v>982</v>
+        <v>541</v>
       </c>
       <c r="H556" t="s">
         <v>7</v>
@@ -18412,10 +18550,10 @@
         <v>974</v>
       </c>
       <c r="B557" t="s">
-        <v>9</v>
+        <v>420</v>
       </c>
       <c r="C557" t="s">
-        <v>25</v>
+        <v>524</v>
       </c>
       <c r="D557" t="s">
         <v>11</v>
@@ -18424,10 +18562,10 @@
         <v>7</v>
       </c>
       <c r="F557" t="s">
-        <v>983</v>
+        <v>543</v>
       </c>
       <c r="G557" t="s">
-        <v>984</v>
+        <v>544</v>
       </c>
       <c r="H557" t="s">
         <v>7</v>
@@ -18438,10 +18576,10 @@
         <v>974</v>
       </c>
       <c r="B558" t="s">
-        <v>9</v>
+        <v>420</v>
       </c>
       <c r="C558" t="s">
-        <v>26</v>
+        <v>526</v>
       </c>
       <c r="D558" t="s">
         <v>11</v>
@@ -18450,10 +18588,10 @@
         <v>7</v>
       </c>
       <c r="F558" t="s">
-        <v>985</v>
+        <v>546</v>
       </c>
       <c r="G558" t="s">
-        <v>985</v>
+        <v>547</v>
       </c>
       <c r="H558" t="s">
         <v>7</v>
@@ -18464,10 +18602,10 @@
         <v>974</v>
       </c>
       <c r="B559" t="s">
-        <v>9</v>
+        <v>420</v>
       </c>
       <c r="C559" t="s">
-        <v>29</v>
+        <v>529</v>
       </c>
       <c r="D559" t="s">
         <v>11</v>
@@ -18476,10 +18614,10 @@
         <v>7</v>
       </c>
       <c r="F559" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="G559" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="H559" t="s">
         <v>7</v>
@@ -18490,10 +18628,10 @@
         <v>974</v>
       </c>
       <c r="B560" t="s">
-        <v>9</v>
+        <v>420</v>
       </c>
       <c r="C560" t="s">
-        <v>127</v>
+        <v>530</v>
       </c>
       <c r="D560" t="s">
         <v>11</v>
@@ -18502,10 +18640,10 @@
         <v>7</v>
       </c>
       <c r="F560" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="G560" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="H560" t="s">
         <v>7</v>
@@ -18516,10 +18654,10 @@
         <v>974</v>
       </c>
       <c r="B561" t="s">
-        <v>9</v>
+        <v>420</v>
       </c>
       <c r="C561" t="s">
-        <v>130</v>
+        <v>533</v>
       </c>
       <c r="D561" t="s">
         <v>11</v>
@@ -18528,10 +18666,10 @@
         <v>7</v>
       </c>
       <c r="F561" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="G561" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="H561" t="s">
         <v>7</v>
@@ -18539,13 +18677,13 @@
     </row>
     <row r="562" spans="1:8">
       <c r="A562" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="B562" t="s">
         <v>9</v>
       </c>
       <c r="C562" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="D562" t="s">
         <v>11</v>
@@ -18554,10 +18692,10 @@
         <v>7</v>
       </c>
       <c r="F562" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="G562" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="H562" t="s">
         <v>7</v>
@@ -18565,13 +18703,13 @@
     </row>
     <row r="563" spans="1:8">
       <c r="A563" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="B563" t="s">
         <v>9</v>
       </c>
       <c r="C563" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="D563" t="s">
         <v>11</v>
@@ -18580,10 +18718,10 @@
         <v>7</v>
       </c>
       <c r="F563" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="G563" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="H563" t="s">
         <v>7</v>
@@ -18591,13 +18729,13 @@
     </row>
     <row r="564" spans="1:8">
       <c r="A564" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="B564" t="s">
         <v>9</v>
       </c>
       <c r="C564" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="D564" t="s">
         <v>11</v>
@@ -18606,10 +18744,10 @@
         <v>7</v>
       </c>
       <c r="F564" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="G564" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="H564" t="s">
         <v>7</v>
@@ -18617,13 +18755,13 @@
     </row>
     <row r="565" spans="1:8">
       <c r="A565" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="B565" t="s">
         <v>9</v>
       </c>
       <c r="C565" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="D565" t="s">
         <v>11</v>
@@ -18632,10 +18770,10 @@
         <v>7</v>
       </c>
       <c r="F565" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="G565" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="H565" t="s">
         <v>7</v>
@@ -18643,13 +18781,13 @@
     </row>
     <row r="566" spans="1:8">
       <c r="A566" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="B566" t="s">
         <v>9</v>
       </c>
       <c r="C566" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="D566" t="s">
         <v>11</v>
@@ -18658,10 +18796,10 @@
         <v>7</v>
       </c>
       <c r="F566" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="G566" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="H566" t="s">
         <v>7</v>
@@ -18669,13 +18807,13 @@
     </row>
     <row r="567" spans="1:8">
       <c r="A567" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="B567" t="s">
         <v>9</v>
       </c>
       <c r="C567" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="D567" t="s">
         <v>11</v>
@@ -18684,10 +18822,10 @@
         <v>7</v>
       </c>
       <c r="F567" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="G567" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="H567" t="s">
         <v>7</v>
@@ -18695,13 +18833,13 @@
     </row>
     <row r="568" spans="1:8">
       <c r="A568" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="B568" t="s">
         <v>9</v>
       </c>
       <c r="C568" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="D568" t="s">
         <v>11</v>
@@ -18710,10 +18848,10 @@
         <v>7</v>
       </c>
       <c r="F568" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="G568" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="H568" t="s">
         <v>7</v>
@@ -18721,13 +18859,13 @@
     </row>
     <row r="569" spans="1:8">
       <c r="A569" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="B569" t="s">
         <v>9</v>
       </c>
       <c r="C569" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D569" t="s">
         <v>11</v>
@@ -18736,10 +18874,10 @@
         <v>7</v>
       </c>
       <c r="F569" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="G569" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="H569" t="s">
         <v>7</v>
@@ -18747,13 +18885,13 @@
     </row>
     <row r="570" spans="1:8">
       <c r="A570" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="B570" t="s">
         <v>9</v>
       </c>
       <c r="C570" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D570" t="s">
         <v>11</v>
@@ -18762,10 +18900,10 @@
         <v>7</v>
       </c>
       <c r="F570" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="G570" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="H570" t="s">
         <v>7</v>
@@ -18773,13 +18911,13 @@
     </row>
     <row r="571" spans="1:8">
       <c r="A571" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="B571" t="s">
         <v>9</v>
       </c>
       <c r="C571" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D571" t="s">
         <v>11</v>
@@ -18788,10 +18926,10 @@
         <v>7</v>
       </c>
       <c r="F571" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="G571" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="H571" t="s">
         <v>7</v>
@@ -18799,13 +18937,13 @@
     </row>
     <row r="572" spans="1:8">
       <c r="A572" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="B572" t="s">
         <v>9</v>
       </c>
       <c r="C572" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D572" t="s">
         <v>11</v>
@@ -18814,10 +18952,10 @@
         <v>7</v>
       </c>
       <c r="F572" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="G572" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="H572" t="s">
         <v>7</v>
@@ -18825,13 +18963,13 @@
     </row>
     <row r="573" spans="1:8">
       <c r="A573" t="s">
-        <v>1014</v>
+        <v>985</v>
       </c>
       <c r="B573" t="s">
-        <v>675</v>
+        <v>9</v>
       </c>
       <c r="C573" t="s">
-        <v>676</v>
+        <v>138</v>
       </c>
       <c r="D573" t="s">
         <v>11</v>
@@ -18840,10 +18978,10 @@
         <v>7</v>
       </c>
       <c r="F573" t="s">
-        <v>695</v>
+        <v>1007</v>
       </c>
       <c r="G573" t="s">
-        <v>696</v>
+        <v>1008</v>
       </c>
       <c r="H573" t="s">
         <v>7</v>
@@ -18851,13 +18989,13 @@
     </row>
     <row r="574" spans="1:8">
       <c r="A574" t="s">
-        <v>1014</v>
+        <v>985</v>
       </c>
       <c r="B574" t="s">
-        <v>675</v>
+        <v>9</v>
       </c>
       <c r="C574" t="s">
-        <v>677</v>
+        <v>141</v>
       </c>
       <c r="D574" t="s">
         <v>11</v>
@@ -18866,10 +19004,10 @@
         <v>7</v>
       </c>
       <c r="F574" t="s">
-        <v>695</v>
+        <v>1009</v>
       </c>
       <c r="G574" t="s">
-        <v>696</v>
+        <v>1010</v>
       </c>
       <c r="H574" t="s">
         <v>7</v>
@@ -18877,13 +19015,13 @@
     </row>
     <row r="575" spans="1:8">
       <c r="A575" t="s">
-        <v>1015</v>
+        <v>985</v>
       </c>
       <c r="B575" t="s">
         <v>9</v>
       </c>
       <c r="C575" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="D575" t="s">
         <v>11</v>
@@ -18892,10 +19030,10 @@
         <v>7</v>
       </c>
       <c r="F575" t="s">
-        <v>27</v>
+        <v>1011</v>
       </c>
       <c r="G575" t="s">
-        <v>28</v>
+        <v>1012</v>
       </c>
       <c r="H575" t="s">
         <v>7</v>
@@ -18903,13 +19041,13 @@
     </row>
     <row r="576" spans="1:8">
       <c r="A576" t="s">
-        <v>1015</v>
+        <v>985</v>
       </c>
       <c r="B576" t="s">
         <v>9</v>
       </c>
       <c r="C576" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="D576" t="s">
         <v>11</v>
@@ -18918,10 +19056,10 @@
         <v>7</v>
       </c>
       <c r="F576" t="s">
-        <v>17</v>
+        <v>1013</v>
       </c>
       <c r="G576" t="s">
-        <v>18</v>
+        <v>1014</v>
       </c>
       <c r="H576" t="s">
         <v>7</v>
@@ -18929,25 +19067,25 @@
     </row>
     <row r="577" spans="1:8">
       <c r="A577" t="s">
+        <v>985</v>
+      </c>
+      <c r="B577" t="s">
+        <v>9</v>
+      </c>
+      <c r="C577" t="s">
+        <v>150</v>
+      </c>
+      <c r="D577" t="s">
+        <v>11</v>
+      </c>
+      <c r="E577" t="s">
+        <v>7</v>
+      </c>
+      <c r="F577" t="s">
         <v>1015</v>
       </c>
-      <c r="B577" t="s">
-        <v>9</v>
-      </c>
-      <c r="C577" t="s">
-        <v>19</v>
-      </c>
-      <c r="D577" t="s">
-        <v>11</v>
-      </c>
-      <c r="E577" t="s">
-        <v>7</v>
-      </c>
-      <c r="F577" t="s">
-        <v>412</v>
-      </c>
       <c r="G577" t="s">
-        <v>413</v>
+        <v>1016</v>
       </c>
       <c r="H577" t="s">
         <v>7</v>
@@ -18955,13 +19093,13 @@
     </row>
     <row r="578" spans="1:8">
       <c r="A578" t="s">
-        <v>1016</v>
+        <v>985</v>
       </c>
       <c r="B578" t="s">
         <v>9</v>
       </c>
       <c r="C578" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="D578" t="s">
         <v>11</v>
@@ -18970,10 +19108,10 @@
         <v>7</v>
       </c>
       <c r="F578" t="s">
-        <v>179</v>
+        <v>1017</v>
       </c>
       <c r="G578" t="s">
-        <v>180</v>
+        <v>1018</v>
       </c>
       <c r="H578" t="s">
         <v>7</v>
@@ -18981,13 +19119,13 @@
     </row>
     <row r="579" spans="1:8">
       <c r="A579" t="s">
-        <v>1016</v>
+        <v>985</v>
       </c>
       <c r="B579" t="s">
         <v>9</v>
       </c>
       <c r="C579" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="D579" t="s">
         <v>11</v>
@@ -18996,10 +19134,10 @@
         <v>7</v>
       </c>
       <c r="F579" t="s">
-        <v>242</v>
+        <v>1019</v>
       </c>
       <c r="G579" t="s">
-        <v>243</v>
+        <v>1020</v>
       </c>
       <c r="H579" t="s">
         <v>7</v>
@@ -19007,13 +19145,13 @@
     </row>
     <row r="580" spans="1:8">
       <c r="A580" t="s">
-        <v>1016</v>
+        <v>985</v>
       </c>
       <c r="B580" t="s">
         <v>9</v>
       </c>
       <c r="C580" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="D580" t="s">
         <v>11</v>
@@ -19022,10 +19160,10 @@
         <v>7</v>
       </c>
       <c r="F580" t="s">
-        <v>242</v>
+        <v>1021</v>
       </c>
       <c r="G580" t="s">
-        <v>243</v>
+        <v>1022</v>
       </c>
       <c r="H580" t="s">
         <v>7</v>
@@ -19033,13 +19171,13 @@
     </row>
     <row r="581" spans="1:8">
       <c r="A581" t="s">
-        <v>1016</v>
+        <v>985</v>
       </c>
       <c r="B581" t="s">
         <v>9</v>
       </c>
       <c r="C581" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="D581" t="s">
         <v>11</v>
@@ -19048,10 +19186,10 @@
         <v>7</v>
       </c>
       <c r="F581" t="s">
-        <v>242</v>
+        <v>1023</v>
       </c>
       <c r="G581" t="s">
-        <v>243</v>
+        <v>1024</v>
       </c>
       <c r="H581" t="s">
         <v>7</v>
@@ -19059,13 +19197,13 @@
     </row>
     <row r="582" spans="1:8">
       <c r="A582" t="s">
-        <v>1016</v>
+        <v>1025</v>
       </c>
       <c r="B582" t="s">
-        <v>9</v>
+        <v>675</v>
       </c>
       <c r="C582" t="s">
-        <v>25</v>
+        <v>676</v>
       </c>
       <c r="D582" t="s">
         <v>11</v>
@@ -19074,10 +19212,10 @@
         <v>7</v>
       </c>
       <c r="F582" t="s">
-        <v>242</v>
+        <v>695</v>
       </c>
       <c r="G582" t="s">
-        <v>243</v>
+        <v>696</v>
       </c>
       <c r="H582" t="s">
         <v>7</v>
@@ -19085,13 +19223,13 @@
     </row>
     <row r="583" spans="1:8">
       <c r="A583" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="B583" t="s">
-        <v>9</v>
+        <v>675</v>
       </c>
       <c r="C583" t="s">
-        <v>10</v>
+        <v>677</v>
       </c>
       <c r="D583" t="s">
         <v>11</v>
@@ -19100,10 +19238,10 @@
         <v>7</v>
       </c>
       <c r="F583" t="s">
-        <v>23</v>
+        <v>695</v>
       </c>
       <c r="G583" t="s">
-        <v>24</v>
+        <v>696</v>
       </c>
       <c r="H583" t="s">
         <v>7</v>
@@ -19111,13 +19249,13 @@
     </row>
     <row r="584" spans="1:8">
       <c r="A584" t="s">
-        <v>1017</v>
+        <v>1026</v>
       </c>
       <c r="B584" t="s">
         <v>9</v>
       </c>
       <c r="C584" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D584" t="s">
         <v>11</v>
@@ -19126,10 +19264,10 @@
         <v>7</v>
       </c>
       <c r="F584" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G584" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H584" t="s">
         <v>7</v>
@@ -19137,13 +19275,13 @@
     </row>
     <row r="585" spans="1:8">
       <c r="A585" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="B585" t="s">
-        <v>1019</v>
+        <v>9</v>
       </c>
       <c r="C585" t="s">
-        <v>1020</v>
+        <v>16</v>
       </c>
       <c r="D585" t="s">
         <v>11</v>
@@ -19152,10 +19290,10 @@
         <v>7</v>
       </c>
       <c r="F585" t="s">
-        <v>672</v>
+        <v>17</v>
       </c>
       <c r="G585" t="s">
-        <v>673</v>
+        <v>18</v>
       </c>
       <c r="H585" t="s">
         <v>7</v>
@@ -19163,13 +19301,13 @@
     </row>
     <row r="586" spans="1:8">
       <c r="A586" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="B586" t="s">
-        <v>1019</v>
+        <v>9</v>
       </c>
       <c r="C586" t="s">
-        <v>1021</v>
+        <v>19</v>
       </c>
       <c r="D586" t="s">
         <v>11</v>
@@ -19178,10 +19316,10 @@
         <v>7</v>
       </c>
       <c r="F586" t="s">
-        <v>672</v>
+        <v>412</v>
       </c>
       <c r="G586" t="s">
-        <v>673</v>
+        <v>413</v>
       </c>
       <c r="H586" t="s">
         <v>7</v>
@@ -19189,7 +19327,7 @@
     </row>
     <row r="587" spans="1:8">
       <c r="A587" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="B587" t="s">
         <v>9</v>
@@ -19204,10 +19342,10 @@
         <v>7</v>
       </c>
       <c r="F587" t="s">
-        <v>1023</v>
+        <v>179</v>
       </c>
       <c r="G587" t="s">
-        <v>1024</v>
+        <v>180</v>
       </c>
       <c r="H587" t="s">
         <v>7</v>
@@ -19215,7 +19353,7 @@
     </row>
     <row r="588" spans="1:8">
       <c r="A588" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="B588" t="s">
         <v>9</v>
@@ -19230,10 +19368,10 @@
         <v>7</v>
       </c>
       <c r="F588" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="G588" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
       <c r="H588" t="s">
         <v>7</v>
@@ -19241,13 +19379,13 @@
     </row>
     <row r="589" spans="1:8">
       <c r="A589" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B589" t="s">
         <v>9</v>
       </c>
       <c r="C589" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D589" t="s">
         <v>11</v>
@@ -19256,10 +19394,10 @@
         <v>7</v>
       </c>
       <c r="F589" t="s">
-        <v>1026</v>
+        <v>242</v>
       </c>
       <c r="G589" t="s">
-        <v>1027</v>
+        <v>243</v>
       </c>
       <c r="H589" t="s">
         <v>7</v>
@@ -19267,13 +19405,13 @@
     </row>
     <row r="590" spans="1:8">
       <c r="A590" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B590" t="s">
         <v>9</v>
       </c>
       <c r="C590" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D590" t="s">
         <v>11</v>
@@ -19282,10 +19420,10 @@
         <v>7</v>
       </c>
       <c r="F590" t="s">
-        <v>1026</v>
+        <v>242</v>
       </c>
       <c r="G590" t="s">
-        <v>1027</v>
+        <v>243</v>
       </c>
       <c r="H590" t="s">
         <v>7</v>
@@ -19293,13 +19431,13 @@
     </row>
     <row r="591" spans="1:8">
       <c r="A591" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B591" t="s">
         <v>9</v>
       </c>
       <c r="C591" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D591" t="s">
         <v>11</v>
@@ -19308,10 +19446,10 @@
         <v>7</v>
       </c>
       <c r="F591" t="s">
-        <v>1029</v>
+        <v>242</v>
       </c>
       <c r="G591" t="s">
-        <v>1030</v>
+        <v>243</v>
       </c>
       <c r="H591" t="s">
         <v>7</v>
@@ -19325,7 +19463,7 @@
         <v>9</v>
       </c>
       <c r="C592" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D592" t="s">
         <v>11</v>
@@ -19334,10 +19472,10 @@
         <v>7</v>
       </c>
       <c r="F592" t="s">
-        <v>1029</v>
+        <v>23</v>
       </c>
       <c r="G592" t="s">
-        <v>1030</v>
+        <v>24</v>
       </c>
       <c r="H592" t="s">
         <v>7</v>
@@ -19351,7 +19489,7 @@
         <v>9</v>
       </c>
       <c r="C593" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D593" t="s">
         <v>11</v>
@@ -19360,10 +19498,10 @@
         <v>7</v>
       </c>
       <c r="F593" t="s">
-        <v>1029</v>
+        <v>23</v>
       </c>
       <c r="G593" t="s">
-        <v>1030</v>
+        <v>24</v>
       </c>
       <c r="H593" t="s">
         <v>7</v>
@@ -19371,13 +19509,13 @@
     </row>
     <row r="594" spans="1:8">
       <c r="A594" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B594" t="s">
-        <v>9</v>
+        <v>1030</v>
       </c>
       <c r="C594" t="s">
-        <v>22</v>
+        <v>1031</v>
       </c>
       <c r="D594" t="s">
         <v>11</v>
@@ -19386,10 +19524,10 @@
         <v>7</v>
       </c>
       <c r="F594" t="s">
-        <v>1031</v>
+        <v>672</v>
       </c>
       <c r="G594" t="s">
-        <v>1032</v>
+        <v>673</v>
       </c>
       <c r="H594" t="s">
         <v>7</v>
@@ -19397,13 +19535,13 @@
     </row>
     <row r="595" spans="1:8">
       <c r="A595" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B595" t="s">
-        <v>9</v>
+        <v>1030</v>
       </c>
       <c r="C595" t="s">
-        <v>10</v>
+        <v>1032</v>
       </c>
       <c r="D595" t="s">
         <v>11</v>
@@ -19412,10 +19550,10 @@
         <v>7</v>
       </c>
       <c r="F595" t="s">
-        <v>698</v>
+        <v>672</v>
       </c>
       <c r="G595" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
       <c r="H595" t="s">
         <v>7</v>
@@ -19429,7 +19567,7 @@
         <v>9</v>
       </c>
       <c r="C596" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D596" t="s">
         <v>11</v>
@@ -19438,10 +19576,10 @@
         <v>7</v>
       </c>
       <c r="F596" t="s">
-        <v>698</v>
+        <v>1034</v>
       </c>
       <c r="G596" t="s">
-        <v>699</v>
+        <v>1035</v>
       </c>
       <c r="H596" t="s">
         <v>7</v>
@@ -19449,13 +19587,13 @@
     </row>
     <row r="597" spans="1:8">
       <c r="A597" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B597" t="s">
         <v>9</v>
       </c>
       <c r="C597" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D597" t="s">
         <v>11</v>
@@ -19464,10 +19602,10 @@
         <v>7</v>
       </c>
       <c r="F597" t="s">
-        <v>1035</v>
+        <v>179</v>
       </c>
       <c r="G597" t="s">
-        <v>1036</v>
+        <v>180</v>
       </c>
       <c r="H597" t="s">
         <v>7</v>
@@ -19475,13 +19613,13 @@
     </row>
     <row r="598" spans="1:8">
       <c r="A598" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B598" t="s">
         <v>9</v>
       </c>
       <c r="C598" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D598" t="s">
         <v>11</v>
@@ -19501,13 +19639,13 @@
     </row>
     <row r="599" spans="1:8">
       <c r="A599" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B599" t="s">
         <v>9</v>
       </c>
       <c r="C599" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D599" t="s">
         <v>11</v>
@@ -19516,10 +19654,10 @@
         <v>7</v>
       </c>
       <c r="F599" t="s">
-        <v>409</v>
+        <v>1037</v>
       </c>
       <c r="G599" t="s">
-        <v>410</v>
+        <v>1038</v>
       </c>
       <c r="H599" t="s">
         <v>7</v>
@@ -19527,13 +19665,13 @@
     </row>
     <row r="600" spans="1:8">
       <c r="A600" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="B600" t="s">
         <v>9</v>
       </c>
       <c r="C600" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D600" t="s">
         <v>11</v>
@@ -19542,10 +19680,10 @@
         <v>7</v>
       </c>
       <c r="F600" t="s">
-        <v>397</v>
+        <v>1040</v>
       </c>
       <c r="G600" t="s">
-        <v>398</v>
+        <v>1041</v>
       </c>
       <c r="H600" t="s">
         <v>7</v>
@@ -19553,13 +19691,13 @@
     </row>
     <row r="601" spans="1:8">
       <c r="A601" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="B601" t="s">
         <v>9</v>
       </c>
       <c r="C601" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D601" t="s">
         <v>11</v>
@@ -19568,10 +19706,10 @@
         <v>7</v>
       </c>
       <c r="F601" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="G601" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="H601" t="s">
         <v>7</v>
@@ -19579,25 +19717,25 @@
     </row>
     <row r="602" spans="1:8">
       <c r="A602" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B602" t="s">
+        <v>9</v>
+      </c>
+      <c r="C602" t="s">
+        <v>19</v>
+      </c>
+      <c r="D602" t="s">
+        <v>11</v>
+      </c>
+      <c r="E602" t="s">
+        <v>7</v>
+      </c>
+      <c r="F602" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G602" t="s">
         <v>1041</v>
-      </c>
-      <c r="B602" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C602" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D602" t="s">
-        <v>11</v>
-      </c>
-      <c r="E602" t="s">
-        <v>7</v>
-      </c>
-      <c r="F602" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G602" t="s">
-        <v>1045</v>
       </c>
       <c r="H602" t="s">
         <v>7</v>
@@ -19605,25 +19743,25 @@
     </row>
     <row r="603" spans="1:8">
       <c r="A603" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B603" t="s">
+        <v>9</v>
+      </c>
+      <c r="C603" t="s">
+        <v>22</v>
+      </c>
+      <c r="D603" t="s">
+        <v>11</v>
+      </c>
+      <c r="E603" t="s">
+        <v>7</v>
+      </c>
+      <c r="F603" t="s">
         <v>1042</v>
       </c>
-      <c r="C603" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D603" t="s">
-        <v>11</v>
-      </c>
-      <c r="E603" t="s">
-        <v>7</v>
-      </c>
-      <c r="F603" t="s">
-        <v>1047</v>
-      </c>
       <c r="G603" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="H603" t="s">
         <v>7</v>
@@ -19631,13 +19769,13 @@
     </row>
     <row r="604" spans="1:8">
       <c r="A604" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B604" t="s">
-        <v>1042</v>
+        <v>9</v>
       </c>
       <c r="C604" t="s">
-        <v>1049</v>
+        <v>10</v>
       </c>
       <c r="D604" t="s">
         <v>11</v>
@@ -19646,10 +19784,10 @@
         <v>7</v>
       </c>
       <c r="F604" t="s">
-        <v>1050</v>
+        <v>698</v>
       </c>
       <c r="G604" t="s">
-        <v>1051</v>
+        <v>699</v>
       </c>
       <c r="H604" t="s">
         <v>7</v>
@@ -19657,13 +19795,13 @@
     </row>
     <row r="605" spans="1:8">
       <c r="A605" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B605" t="s">
-        <v>1042</v>
+        <v>9</v>
       </c>
       <c r="C605" t="s">
-        <v>1052</v>
+        <v>16</v>
       </c>
       <c r="D605" t="s">
         <v>11</v>
@@ -19672,10 +19810,10 @@
         <v>7</v>
       </c>
       <c r="F605" t="s">
-        <v>1053</v>
+        <v>698</v>
       </c>
       <c r="G605" t="s">
-        <v>1054</v>
+        <v>699</v>
       </c>
       <c r="H605" t="s">
         <v>7</v>
@@ -19683,7 +19821,7 @@
     </row>
     <row r="606" spans="1:8">
       <c r="A606" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="B606" t="s">
         <v>9</v>
@@ -19698,10 +19836,10 @@
         <v>7</v>
       </c>
       <c r="F606" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="G606" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="H606" t="s">
         <v>7</v>
@@ -19709,7 +19847,7 @@
     </row>
     <row r="607" spans="1:8">
       <c r="A607" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="B607" t="s">
         <v>9</v>
@@ -19724,10 +19862,10 @@
         <v>7</v>
       </c>
       <c r="F607" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="G607" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="H607" t="s">
         <v>7</v>
@@ -19735,7 +19873,7 @@
     </row>
     <row r="608" spans="1:8">
       <c r="A608" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="B608" t="s">
         <v>9</v>
@@ -19750,10 +19888,10 @@
         <v>7</v>
       </c>
       <c r="F608" t="s">
-        <v>1060</v>
+        <v>409</v>
       </c>
       <c r="G608" t="s">
-        <v>7</v>
+        <v>410</v>
       </c>
       <c r="H608" t="s">
         <v>7</v>
@@ -19761,13 +19899,13 @@
     </row>
     <row r="609" spans="1:8">
       <c r="A609" t="s">
-        <v>1061</v>
+        <v>1045</v>
       </c>
       <c r="B609" t="s">
         <v>9</v>
       </c>
       <c r="C609" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D609" t="s">
         <v>11</v>
@@ -19776,10 +19914,10 @@
         <v>7</v>
       </c>
       <c r="F609" t="s">
-        <v>1062</v>
+        <v>397</v>
       </c>
       <c r="G609" t="s">
-        <v>1063</v>
+        <v>398</v>
       </c>
       <c r="H609" t="s">
         <v>7</v>
@@ -19787,13 +19925,13 @@
     </row>
     <row r="610" spans="1:8">
       <c r="A610" t="s">
-        <v>1064</v>
+        <v>1045</v>
       </c>
       <c r="B610" t="s">
         <v>9</v>
       </c>
       <c r="C610" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D610" t="s">
         <v>11</v>
@@ -19802,10 +19940,10 @@
         <v>7</v>
       </c>
       <c r="F610" t="s">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="G610" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="H610" t="s">
         <v>7</v>
@@ -19813,13 +19951,13 @@
     </row>
     <row r="611" spans="1:8">
       <c r="A611" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="B611" t="s">
-        <v>9</v>
+        <v>1053</v>
       </c>
       <c r="C611" t="s">
-        <v>16</v>
+        <v>1054</v>
       </c>
       <c r="D611" t="s">
         <v>11</v>
@@ -19828,10 +19966,10 @@
         <v>7</v>
       </c>
       <c r="F611" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="G611" t="s">
-        <v>1066</v>
+        <v>1203</v>
       </c>
       <c r="H611" t="s">
         <v>7</v>
@@ -19839,13 +19977,13 @@
     </row>
     <row r="612" spans="1:8">
       <c r="A612" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
       <c r="B612" t="s">
-        <v>1068</v>
+        <v>1053</v>
       </c>
       <c r="C612" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
       <c r="D612" t="s">
         <v>11</v>
@@ -19854,10 +19992,10 @@
         <v>7</v>
       </c>
       <c r="F612" t="s">
-        <v>61</v>
+        <v>1048</v>
       </c>
       <c r="G612" t="s">
-        <v>62</v>
+        <v>1204</v>
       </c>
       <c r="H612" t="s">
         <v>7</v>
@@ -19865,13 +20003,13 @@
     </row>
     <row r="613" spans="1:8">
       <c r="A613" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
       <c r="B613" t="s">
-        <v>1068</v>
+        <v>1053</v>
       </c>
       <c r="C613" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
       <c r="D613" t="s">
         <v>11</v>
@@ -19880,10 +20018,10 @@
         <v>7</v>
       </c>
       <c r="F613" t="s">
-        <v>1071</v>
+        <v>409</v>
       </c>
       <c r="G613" t="s">
-        <v>1072</v>
+        <v>1205</v>
       </c>
       <c r="H613" t="s">
         <v>7</v>
@@ -19891,13 +20029,13 @@
     </row>
     <row r="614" spans="1:8">
       <c r="A614" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
       <c r="B614" t="s">
-        <v>1068</v>
+        <v>1053</v>
       </c>
       <c r="C614" t="s">
-        <v>1073</v>
+        <v>1057</v>
       </c>
       <c r="D614" t="s">
         <v>11</v>
@@ -19906,10 +20044,10 @@
         <v>7</v>
       </c>
       <c r="F614" t="s">
-        <v>1074</v>
+        <v>397</v>
       </c>
       <c r="G614" t="s">
-        <v>1075</v>
+        <v>1206</v>
       </c>
       <c r="H614" t="s">
         <v>7</v>
@@ -19917,13 +20055,13 @@
     </row>
     <row r="615" spans="1:8">
       <c r="A615" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
       <c r="B615" t="s">
-        <v>1068</v>
+        <v>1053</v>
       </c>
       <c r="C615" t="s">
-        <v>1076</v>
+        <v>1058</v>
       </c>
       <c r="D615" t="s">
         <v>11</v>
@@ -19932,10 +20070,10 @@
         <v>7</v>
       </c>
       <c r="F615" t="s">
-        <v>1077</v>
+        <v>1050</v>
       </c>
       <c r="G615" t="s">
-        <v>1078</v>
+        <v>1207</v>
       </c>
       <c r="H615" t="s">
         <v>7</v>
@@ -19943,13 +20081,13 @@
     </row>
     <row r="616" spans="1:8">
       <c r="A616" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="B616" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="C616" t="s">
-        <v>1079</v>
+        <v>1061</v>
       </c>
       <c r="D616" t="s">
         <v>11</v>
@@ -19958,10 +20096,10 @@
         <v>7</v>
       </c>
       <c r="F616" t="s">
-        <v>203</v>
+        <v>1062</v>
       </c>
       <c r="G616" t="s">
-        <v>204</v>
+        <v>1063</v>
       </c>
       <c r="H616" t="s">
         <v>7</v>
@@ -19969,13 +20107,13 @@
     </row>
     <row r="617" spans="1:8">
       <c r="A617" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="B617" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="C617" t="s">
-        <v>1080</v>
+        <v>1064</v>
       </c>
       <c r="D617" t="s">
         <v>11</v>
@@ -19984,10 +20122,10 @@
         <v>7</v>
       </c>
       <c r="F617" t="s">
-        <v>65</v>
+        <v>1065</v>
       </c>
       <c r="G617" t="s">
-        <v>65</v>
+        <v>1066</v>
       </c>
       <c r="H617" t="s">
         <v>7</v>
@@ -19995,25 +20133,25 @@
     </row>
     <row r="618" spans="1:8">
       <c r="A618" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C618" t="s">
         <v>1067</v>
       </c>
-      <c r="B618" t="s">
+      <c r="D618" t="s">
+        <v>11</v>
+      </c>
+      <c r="E618" t="s">
+        <v>7</v>
+      </c>
+      <c r="F618" t="s">
         <v>1068</v>
       </c>
-      <c r="C618" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D618" t="s">
-        <v>11</v>
-      </c>
-      <c r="E618" t="s">
-        <v>7</v>
-      </c>
-      <c r="F618" t="s">
-        <v>1082</v>
-      </c>
       <c r="G618" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="H618" t="s">
         <v>7</v>
@@ -20021,13 +20159,13 @@
     </row>
     <row r="619" spans="1:8">
       <c r="A619" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="B619" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="C619" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="D619" t="s">
         <v>11</v>
@@ -20036,10 +20174,10 @@
         <v>7</v>
       </c>
       <c r="F619" t="s">
-        <v>274</v>
+        <v>1071</v>
       </c>
       <c r="G619" t="s">
-        <v>275</v>
+        <v>1072</v>
       </c>
       <c r="H619" t="s">
         <v>7</v>
@@ -20047,13 +20185,13 @@
     </row>
     <row r="620" spans="1:8">
       <c r="A620" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="B620" t="s">
-        <v>1068</v>
+        <v>9</v>
       </c>
       <c r="C620" t="s">
-        <v>1085</v>
+        <v>10</v>
       </c>
       <c r="D620" t="s">
         <v>11</v>
@@ -20062,10 +20200,10 @@
         <v>7</v>
       </c>
       <c r="F620" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="G620" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="H620" t="s">
         <v>7</v>
@@ -20073,13 +20211,13 @@
     </row>
     <row r="621" spans="1:8">
       <c r="A621" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="B621" t="s">
-        <v>1068</v>
+        <v>9</v>
       </c>
       <c r="C621" t="s">
-        <v>1088</v>
+        <v>16</v>
       </c>
       <c r="D621" t="s">
         <v>11</v>
@@ -20088,10 +20226,10 @@
         <v>7</v>
       </c>
       <c r="F621" t="s">
-        <v>293</v>
+        <v>1076</v>
       </c>
       <c r="G621" t="s">
-        <v>293</v>
+        <v>1077</v>
       </c>
       <c r="H621" t="s">
         <v>7</v>
@@ -20099,13 +20237,13 @@
     </row>
     <row r="622" spans="1:8">
       <c r="A622" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="B622" t="s">
-        <v>1068</v>
+        <v>9</v>
       </c>
       <c r="C622" t="s">
-        <v>1089</v>
+        <v>19</v>
       </c>
       <c r="D622" t="s">
         <v>11</v>
@@ -20114,10 +20252,10 @@
         <v>7</v>
       </c>
       <c r="F622" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="G622" t="s">
-        <v>1091</v>
+        <v>1208</v>
       </c>
       <c r="H622" t="s">
         <v>7</v>
@@ -20125,13 +20263,13 @@
     </row>
     <row r="623" spans="1:8">
       <c r="A623" t="s">
-        <v>1067</v>
+        <v>1079</v>
       </c>
       <c r="B623" t="s">
-        <v>1068</v>
+        <v>9</v>
       </c>
       <c r="C623" t="s">
-        <v>1092</v>
+        <v>10</v>
       </c>
       <c r="D623" t="s">
         <v>11</v>
@@ -20140,10 +20278,10 @@
         <v>7</v>
       </c>
       <c r="F623" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="G623" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="H623" t="s">
         <v>7</v>
@@ -20151,13 +20289,13 @@
     </row>
     <row r="624" spans="1:8">
       <c r="A624" t="s">
-        <v>1067</v>
+        <v>1082</v>
       </c>
       <c r="B624" t="s">
-        <v>1068</v>
+        <v>9</v>
       </c>
       <c r="C624" t="s">
-        <v>1095</v>
+        <v>10</v>
       </c>
       <c r="D624" t="s">
         <v>11</v>
@@ -20166,10 +20304,10 @@
         <v>7</v>
       </c>
       <c r="F624" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="G624" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
       <c r="H624" t="s">
         <v>7</v>
@@ -20177,13 +20315,13 @@
     </row>
     <row r="625" spans="1:8">
       <c r="A625" t="s">
-        <v>1067</v>
+        <v>1082</v>
       </c>
       <c r="B625" t="s">
-        <v>1068</v>
+        <v>9</v>
       </c>
       <c r="C625" t="s">
-        <v>1098</v>
+        <v>16</v>
       </c>
       <c r="D625" t="s">
         <v>11</v>
@@ -20192,10 +20330,10 @@
         <v>7</v>
       </c>
       <c r="F625" t="s">
-        <v>58</v>
+        <v>1083</v>
       </c>
       <c r="G625" t="s">
-        <v>59</v>
+        <v>1084</v>
       </c>
       <c r="H625" t="s">
         <v>7</v>
@@ -20203,13 +20341,13 @@
     </row>
     <row r="626" spans="1:8">
       <c r="A626" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B626" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C626" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="D626" t="s">
         <v>11</v>
@@ -20218,10 +20356,10 @@
         <v>7</v>
       </c>
       <c r="F626" t="s">
-        <v>1100</v>
+        <v>61</v>
       </c>
       <c r="G626" t="s">
-        <v>1100</v>
+        <v>62</v>
       </c>
       <c r="H626" t="s">
         <v>7</v>
@@ -20229,13 +20367,13 @@
     </row>
     <row r="627" spans="1:8">
       <c r="A627" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B627" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C627" t="s">
-        <v>1101</v>
+        <v>1088</v>
       </c>
       <c r="D627" t="s">
         <v>11</v>
@@ -20244,10 +20382,10 @@
         <v>7</v>
       </c>
       <c r="F627" t="s">
-        <v>1102</v>
+        <v>1089</v>
       </c>
       <c r="G627" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="H627" t="s">
         <v>7</v>
@@ -20255,13 +20393,13 @@
     </row>
     <row r="628" spans="1:8">
       <c r="A628" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B628" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C628" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="D628" t="s">
         <v>11</v>
@@ -20270,10 +20408,10 @@
         <v>7</v>
       </c>
       <c r="F628" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="G628" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="H628" t="s">
         <v>7</v>
@@ -20281,13 +20419,13 @@
     </row>
     <row r="629" spans="1:8">
       <c r="A629" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B629" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C629" t="s">
-        <v>1106</v>
+        <v>1094</v>
       </c>
       <c r="D629" t="s">
         <v>11</v>
@@ -20296,10 +20434,10 @@
         <v>7</v>
       </c>
       <c r="F629" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="G629" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="H629" t="s">
         <v>7</v>
@@ -20307,13 +20445,13 @@
     </row>
     <row r="630" spans="1:8">
       <c r="A630" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B630" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C630" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="D630" t="s">
         <v>11</v>
@@ -20322,10 +20460,10 @@
         <v>7</v>
       </c>
       <c r="F630" t="s">
-        <v>1110</v>
+        <v>203</v>
       </c>
       <c r="G630" t="s">
-        <v>1111</v>
+        <v>204</v>
       </c>
       <c r="H630" t="s">
         <v>7</v>
@@ -20333,13 +20471,13 @@
     </row>
     <row r="631" spans="1:8">
       <c r="A631" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B631" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C631" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="D631" t="s">
         <v>11</v>
@@ -20348,10 +20486,10 @@
         <v>7</v>
       </c>
       <c r="F631" t="s">
-        <v>239</v>
+        <v>65</v>
       </c>
       <c r="G631" t="s">
-        <v>239</v>
+        <v>65</v>
       </c>
       <c r="H631" t="s">
         <v>7</v>
@@ -20359,13 +20497,13 @@
     </row>
     <row r="632" spans="1:8">
       <c r="A632" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B632" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C632" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="D632" t="s">
         <v>11</v>
@@ -20374,10 +20512,10 @@
         <v>7</v>
       </c>
       <c r="F632" t="s">
-        <v>219</v>
+        <v>1100</v>
       </c>
       <c r="G632" t="s">
-        <v>219</v>
+        <v>1101</v>
       </c>
       <c r="H632" t="s">
         <v>7</v>
@@ -20385,13 +20523,13 @@
     </row>
     <row r="633" spans="1:8">
       <c r="A633" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B633" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C633" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="D633" t="s">
         <v>11</v>
@@ -20400,10 +20538,10 @@
         <v>7</v>
       </c>
       <c r="F633" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="G633" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="H633" t="s">
         <v>7</v>
@@ -20411,13 +20549,13 @@
     </row>
     <row r="634" spans="1:8">
       <c r="A634" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B634" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C634" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="D634" t="s">
         <v>11</v>
@@ -20426,10 +20564,10 @@
         <v>7</v>
       </c>
       <c r="F634" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="G634" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="H634" t="s">
         <v>7</v>
@@ -20437,13 +20575,13 @@
     </row>
     <row r="635" spans="1:8">
       <c r="A635" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B635" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C635" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="D635" t="s">
         <v>11</v>
@@ -20452,10 +20590,10 @@
         <v>7</v>
       </c>
       <c r="F635" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="G635" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="H635" t="s">
         <v>7</v>
@@ -20463,13 +20601,13 @@
     </row>
     <row r="636" spans="1:8">
       <c r="A636" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B636" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C636" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="D636" t="s">
         <v>11</v>
@@ -20478,10 +20616,10 @@
         <v>7</v>
       </c>
       <c r="F636" t="s">
-        <v>246</v>
+        <v>1108</v>
       </c>
       <c r="G636" t="s">
-        <v>246</v>
+        <v>1109</v>
       </c>
       <c r="H636" t="s">
         <v>7</v>
@@ -20489,13 +20627,13 @@
     </row>
     <row r="637" spans="1:8">
       <c r="A637" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B637" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C637" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="D637" t="s">
         <v>11</v>
@@ -20504,10 +20642,10 @@
         <v>7</v>
       </c>
       <c r="F637" t="s">
-        <v>248</v>
+        <v>1111</v>
       </c>
       <c r="G637" t="s">
-        <v>249</v>
+        <v>1112</v>
       </c>
       <c r="H637" t="s">
         <v>7</v>
@@ -20515,13 +20653,13 @@
     </row>
     <row r="638" spans="1:8">
       <c r="A638" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B638" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C638" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="D638" t="s">
         <v>11</v>
@@ -20530,10 +20668,10 @@
         <v>7</v>
       </c>
       <c r="F638" t="s">
-        <v>250</v>
+        <v>1114</v>
       </c>
       <c r="G638" t="s">
-        <v>250</v>
+        <v>1115</v>
       </c>
       <c r="H638" t="s">
         <v>7</v>
@@ -20541,13 +20679,13 @@
     </row>
     <row r="639" spans="1:8">
       <c r="A639" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B639" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C639" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="D639" t="s">
         <v>11</v>
@@ -20556,10 +20694,10 @@
         <v>7</v>
       </c>
       <c r="F639" t="s">
-        <v>1123</v>
+        <v>58</v>
       </c>
       <c r="G639" t="s">
-        <v>1124</v>
+        <v>59</v>
       </c>
       <c r="H639" t="s">
         <v>7</v>
@@ -20567,13 +20705,13 @@
     </row>
     <row r="640" spans="1:8">
       <c r="A640" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B640" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C640" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="D640" t="s">
         <v>11</v>
@@ -20582,10 +20720,10 @@
         <v>7</v>
       </c>
       <c r="F640" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="G640" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="H640" t="s">
         <v>7</v>
@@ -20593,13 +20731,13 @@
     </row>
     <row r="641" spans="1:8">
       <c r="A641" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B641" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C641" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="D641" t="s">
         <v>11</v>
@@ -20608,10 +20746,10 @@
         <v>7</v>
       </c>
       <c r="F641" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="G641" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="H641" t="s">
         <v>7</v>
@@ -20619,13 +20757,13 @@
     </row>
     <row r="642" spans="1:8">
       <c r="A642" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B642" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C642" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="D642" t="s">
         <v>11</v>
@@ -20634,10 +20772,10 @@
         <v>7</v>
       </c>
       <c r="F642" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="G642" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="H642" t="s">
         <v>7</v>
@@ -20645,13 +20783,13 @@
     </row>
     <row r="643" spans="1:8">
       <c r="A643" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B643" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C643" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="D643" t="s">
         <v>11</v>
@@ -20660,10 +20798,10 @@
         <v>7</v>
       </c>
       <c r="F643" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="G643" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="H643" t="s">
         <v>7</v>
@@ -20671,13 +20809,13 @@
     </row>
     <row r="644" spans="1:8">
       <c r="A644" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B644" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C644" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="D644" t="s">
         <v>11</v>
@@ -20686,10 +20824,10 @@
         <v>7</v>
       </c>
       <c r="F644" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="G644" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="H644" t="s">
         <v>7</v>
@@ -20697,13 +20835,13 @@
     </row>
     <row r="645" spans="1:8">
       <c r="A645" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B645" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C645" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="D645" t="s">
         <v>11</v>
@@ -20712,10 +20850,10 @@
         <v>7</v>
       </c>
       <c r="F645" t="s">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="G645" t="s">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="H645" t="s">
         <v>7</v>
@@ -20723,13 +20861,13 @@
     </row>
     <row r="646" spans="1:8">
       <c r="A646" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="B646" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="C646" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="D646" t="s">
         <v>11</v>
@@ -20738,10 +20876,10 @@
         <v>7</v>
       </c>
       <c r="F646" t="s">
-        <v>1140</v>
+        <v>219</v>
       </c>
       <c r="G646" t="s">
-        <v>1140</v>
+        <v>219</v>
       </c>
       <c r="H646" t="s">
         <v>7</v>
@@ -20749,13 +20887,13 @@
     </row>
     <row r="647" spans="1:8">
       <c r="A647" t="s">
-        <v>1141</v>
+        <v>1085</v>
       </c>
       <c r="B647" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="C647" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="D647" t="s">
         <v>11</v>
@@ -20764,10 +20902,10 @@
         <v>7</v>
       </c>
       <c r="F647" t="s">
-        <v>1144</v>
+        <v>247</v>
       </c>
       <c r="G647" t="s">
-        <v>1144</v>
+        <v>247</v>
       </c>
       <c r="H647" t="s">
         <v>7</v>
@@ -20775,13 +20913,13 @@
     </row>
     <row r="648" spans="1:8">
       <c r="A648" t="s">
-        <v>1141</v>
+        <v>1085</v>
       </c>
       <c r="B648" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="C648" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="D648" t="s">
         <v>11</v>
@@ -20790,10 +20928,10 @@
         <v>7</v>
       </c>
       <c r="F648" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="G648" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="H648" t="s">
         <v>7</v>
@@ -20801,13 +20939,13 @@
     </row>
     <row r="649" spans="1:8">
       <c r="A649" t="s">
-        <v>1141</v>
+        <v>1085</v>
       </c>
       <c r="B649" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="C649" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
       <c r="D649" t="s">
         <v>11</v>
@@ -20816,10 +20954,10 @@
         <v>7</v>
       </c>
       <c r="F649" t="s">
-        <v>1148</v>
+        <v>245</v>
       </c>
       <c r="G649" t="s">
-        <v>1148</v>
+        <v>245</v>
       </c>
       <c r="H649" t="s">
         <v>7</v>
@@ -20827,13 +20965,13 @@
     </row>
     <row r="650" spans="1:8">
       <c r="A650" t="s">
-        <v>1141</v>
+        <v>1085</v>
       </c>
       <c r="B650" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="C650" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="D650" t="s">
         <v>11</v>
@@ -20842,10 +20980,10 @@
         <v>7</v>
       </c>
       <c r="F650" t="s">
-        <v>1150</v>
+        <v>246</v>
       </c>
       <c r="G650" t="s">
-        <v>1150</v>
+        <v>246</v>
       </c>
       <c r="H650" t="s">
         <v>7</v>
@@ -20853,13 +20991,13 @@
     </row>
     <row r="651" spans="1:8">
       <c r="A651" t="s">
-        <v>1141</v>
+        <v>1085</v>
       </c>
       <c r="B651" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="C651" t="s">
-        <v>1151</v>
+        <v>1138</v>
       </c>
       <c r="D651" t="s">
         <v>11</v>
@@ -20868,10 +21006,10 @@
         <v>7</v>
       </c>
       <c r="F651" t="s">
-        <v>1152</v>
+        <v>248</v>
       </c>
       <c r="G651" t="s">
-        <v>1152</v>
+        <v>249</v>
       </c>
       <c r="H651" t="s">
         <v>7</v>
@@ -20879,13 +21017,13 @@
     </row>
     <row r="652" spans="1:8">
       <c r="A652" t="s">
-        <v>1141</v>
+        <v>1085</v>
       </c>
       <c r="B652" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="C652" t="s">
-        <v>1153</v>
+        <v>1139</v>
       </c>
       <c r="D652" t="s">
         <v>11</v>
@@ -20894,10 +21032,10 @@
         <v>7</v>
       </c>
       <c r="F652" t="s">
-        <v>1154</v>
+        <v>250</v>
       </c>
       <c r="G652" t="s">
-        <v>1154</v>
+        <v>250</v>
       </c>
       <c r="H652" t="s">
         <v>7</v>
@@ -20905,25 +21043,25 @@
     </row>
     <row r="653" spans="1:8">
       <c r="A653" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D653" t="s">
+        <v>11</v>
+      </c>
+      <c r="E653" t="s">
+        <v>7</v>
+      </c>
+      <c r="F653" t="s">
         <v>1141</v>
       </c>
-      <c r="B653" t="s">
+      <c r="G653" t="s">
         <v>1142</v>
-      </c>
-      <c r="C653" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D653" t="s">
-        <v>11</v>
-      </c>
-      <c r="E653" t="s">
-        <v>7</v>
-      </c>
-      <c r="F653" t="s">
-        <v>1156</v>
-      </c>
-      <c r="G653" t="s">
-        <v>1156</v>
       </c>
       <c r="H653" t="s">
         <v>7</v>
@@ -20931,13 +21069,13 @@
     </row>
     <row r="654" spans="1:8">
       <c r="A654" t="s">
-        <v>1141</v>
+        <v>1085</v>
       </c>
       <c r="B654" t="s">
-        <v>1142</v>
+        <v>1086</v>
       </c>
       <c r="C654" t="s">
-        <v>1157</v>
+        <v>1143</v>
       </c>
       <c r="D654" t="s">
         <v>11</v>
@@ -20946,10 +21084,10 @@
         <v>7</v>
       </c>
       <c r="F654" t="s">
-        <v>1158</v>
+        <v>1144</v>
       </c>
       <c r="G654" t="s">
-        <v>1158</v>
+        <v>1145</v>
       </c>
       <c r="H654" t="s">
         <v>7</v>
@@ -20957,13 +21095,13 @@
     </row>
     <row r="655" spans="1:8">
       <c r="A655" t="s">
-        <v>1159</v>
+        <v>1085</v>
       </c>
       <c r="B655" t="s">
-        <v>1160</v>
+        <v>1086</v>
       </c>
       <c r="C655" t="s">
-        <v>1161</v>
+        <v>1146</v>
       </c>
       <c r="D655" t="s">
         <v>11</v>
@@ -20972,10 +21110,10 @@
         <v>7</v>
       </c>
       <c r="F655" t="s">
-        <v>1162</v>
+        <v>1147</v>
       </c>
       <c r="G655" t="s">
-        <v>1163</v>
+        <v>1148</v>
       </c>
       <c r="H655" t="s">
         <v>7</v>
@@ -20983,13 +21121,13 @@
     </row>
     <row r="656" spans="1:8">
       <c r="A656" t="s">
-        <v>1159</v>
+        <v>1085</v>
       </c>
       <c r="B656" t="s">
-        <v>1160</v>
+        <v>1086</v>
       </c>
       <c r="C656" t="s">
-        <v>1164</v>
+        <v>1149</v>
       </c>
       <c r="D656" t="s">
         <v>11</v>
@@ -20998,10 +21136,10 @@
         <v>7</v>
       </c>
       <c r="F656" t="s">
-        <v>1165</v>
+        <v>1150</v>
       </c>
       <c r="G656" t="s">
-        <v>1165</v>
+        <v>1151</v>
       </c>
       <c r="H656" t="s">
         <v>7</v>
@@ -21009,13 +21147,13 @@
     </row>
     <row r="657" spans="1:8">
       <c r="A657" t="s">
-        <v>1159</v>
+        <v>1085</v>
       </c>
       <c r="B657" t="s">
-        <v>1160</v>
+        <v>1086</v>
       </c>
       <c r="C657" t="s">
-        <v>1166</v>
+        <v>1152</v>
       </c>
       <c r="D657" t="s">
         <v>11</v>
@@ -21024,10 +21162,10 @@
         <v>7</v>
       </c>
       <c r="F657" t="s">
-        <v>1167</v>
+        <v>1153</v>
       </c>
       <c r="G657" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="H657" t="s">
         <v>7</v>
@@ -21035,13 +21173,13 @@
     </row>
     <row r="658" spans="1:8">
       <c r="A658" t="s">
-        <v>1159</v>
+        <v>1085</v>
       </c>
       <c r="B658" t="s">
-        <v>1160</v>
+        <v>1086</v>
       </c>
       <c r="C658" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
       <c r="D658" t="s">
         <v>11</v>
@@ -21050,10 +21188,10 @@
         <v>7</v>
       </c>
       <c r="F658" t="s">
-        <v>1170</v>
+        <v>1155</v>
       </c>
       <c r="G658" t="s">
-        <v>1171</v>
+        <v>1155</v>
       </c>
       <c r="H658" t="s">
         <v>7</v>
@@ -21061,13 +21199,13 @@
     </row>
     <row r="659" spans="1:8">
       <c r="A659" t="s">
-        <v>1159</v>
+        <v>1085</v>
       </c>
       <c r="B659" t="s">
-        <v>1160</v>
+        <v>1086</v>
       </c>
       <c r="C659" t="s">
-        <v>1172</v>
+        <v>1156</v>
       </c>
       <c r="D659" t="s">
         <v>11</v>
@@ -21076,10 +21214,10 @@
         <v>7</v>
       </c>
       <c r="F659" t="s">
-        <v>1173</v>
+        <v>88</v>
       </c>
       <c r="G659" t="s">
-        <v>1173</v>
+        <v>88</v>
       </c>
       <c r="H659" t="s">
         <v>7</v>
@@ -21087,13 +21225,13 @@
     </row>
     <row r="660" spans="1:8">
       <c r="A660" t="s">
-        <v>1159</v>
+        <v>1085</v>
       </c>
       <c r="B660" t="s">
-        <v>1160</v>
+        <v>1086</v>
       </c>
       <c r="C660" t="s">
-        <v>1174</v>
+        <v>1157</v>
       </c>
       <c r="D660" t="s">
         <v>11</v>
@@ -21102,10 +21240,10 @@
         <v>7</v>
       </c>
       <c r="F660" t="s">
-        <v>1175</v>
+        <v>1158</v>
       </c>
       <c r="G660" t="s">
-        <v>1175</v>
+        <v>1158</v>
       </c>
       <c r="H660" t="s">
         <v>7</v>
@@ -21119,21 +21257,385 @@
         <v>1160</v>
       </c>
       <c r="C661" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D661" t="s">
+        <v>11</v>
+      </c>
+      <c r="E661" t="s">
+        <v>7</v>
+      </c>
+      <c r="F661" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G661" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H661" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8">
+      <c r="A662" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C662" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D662" t="s">
+        <v>11</v>
+      </c>
+      <c r="E662" t="s">
+        <v>7</v>
+      </c>
+      <c r="F662" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G662" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H662" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8">
+      <c r="A663" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C663" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D663" t="s">
+        <v>11</v>
+      </c>
+      <c r="E663" t="s">
+        <v>7</v>
+      </c>
+      <c r="F663" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G663" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H663" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8">
+      <c r="A664" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C664" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D664" t="s">
+        <v>11</v>
+      </c>
+      <c r="E664" t="s">
+        <v>7</v>
+      </c>
+      <c r="F664" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G664" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H664" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8">
+      <c r="A665" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C665" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D665" t="s">
+        <v>11</v>
+      </c>
+      <c r="E665" t="s">
+        <v>7</v>
+      </c>
+      <c r="F665" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G665" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H665" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8">
+      <c r="A666" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D666" t="s">
+        <v>11</v>
+      </c>
+      <c r="E666" t="s">
+        <v>7</v>
+      </c>
+      <c r="F666" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G666" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H666" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8">
+      <c r="A667" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C667" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D667" t="s">
+        <v>11</v>
+      </c>
+      <c r="E667" t="s">
+        <v>7</v>
+      </c>
+      <c r="F667" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G667" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H667" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8">
+      <c r="A668" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D668" t="s">
+        <v>11</v>
+      </c>
+      <c r="E668" t="s">
+        <v>7</v>
+      </c>
+      <c r="F668" t="s">
         <v>1176</v>
       </c>
-      <c r="D661" t="s">
-        <v>11</v>
-      </c>
-      <c r="E661" t="s">
-        <v>7</v>
-      </c>
-      <c r="F661" t="s">
+      <c r="G668" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H668" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8">
+      <c r="A669" t="s">
         <v>1177</v>
       </c>
-      <c r="G661" t="s">
+      <c r="B669" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C669" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D669" t="s">
+        <v>11</v>
+      </c>
+      <c r="E669" t="s">
+        <v>7</v>
+      </c>
+      <c r="F669" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G669" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H669" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8">
+      <c r="A670" t="s">
         <v>1177</v>
       </c>
-      <c r="H661" t="s">
+      <c r="B670" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C670" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D670" t="s">
+        <v>11</v>
+      </c>
+      <c r="E670" t="s">
+        <v>7</v>
+      </c>
+      <c r="F670" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G670" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H670" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8">
+      <c r="A671" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C671" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D671" t="s">
+        <v>11</v>
+      </c>
+      <c r="E671" t="s">
+        <v>7</v>
+      </c>
+      <c r="F671" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G671" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H671" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8">
+      <c r="A672" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C672" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D672" t="s">
+        <v>11</v>
+      </c>
+      <c r="E672" t="s">
+        <v>7</v>
+      </c>
+      <c r="F672" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G672" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H672" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8">
+      <c r="A673" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C673" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D673" t="s">
+        <v>11</v>
+      </c>
+      <c r="E673" t="s">
+        <v>7</v>
+      </c>
+      <c r="F673" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G673" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H673" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8">
+      <c r="A674" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C674" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D674" t="s">
+        <v>11</v>
+      </c>
+      <c r="E674" t="s">
+        <v>7</v>
+      </c>
+      <c r="F674" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G674" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H674" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8">
+      <c r="A675" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C675" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D675" t="s">
+        <v>11</v>
+      </c>
+      <c r="E675" t="s">
+        <v>7</v>
+      </c>
+      <c r="F675" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G675" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H675" t="s">
         <v>7</v>
       </c>
     </row>

--- a/os_fe_tw.xlsx
+++ b/os_fe_tw.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{21139073-4C3A-6E4D-B2BA-E3239EBA7709}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="osfe_new_en.xlsx" state="show" r:id="rId4"/>
+    <sheet name="osfe_new_en.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -3574,14 +3578,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3608,7 +3619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3944,11 +3955,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H584"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A557" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="7" max="7" width="67.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3971,7 +3988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3994,7 +4011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4017,7 +4034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4040,7 +4057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4063,7 +4080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4086,7 +4103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4109,7 +4126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -4132,7 +4149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -4155,7 +4172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -4178,7 +4195,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -4201,7 +4218,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -4224,7 +4241,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -4247,7 +4264,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -4270,7 +4287,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -4293,7 +4310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -4316,7 +4333,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -4339,7 +4356,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -4362,7 +4379,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -4385,7 +4402,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -4408,7 +4425,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4431,7 +4448,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -4454,7 +4471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -4477,7 +4494,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -4500,7 +4517,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -4523,7 +4540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -4546,7 +4563,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -4569,7 +4586,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -4592,7 +4609,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -4615,7 +4632,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -4638,7 +4655,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -4661,7 +4678,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -4684,7 +4701,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -4707,7 +4724,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -4730,7 +4747,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -4753,7 +4770,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -4776,7 +4793,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -4799,7 +4816,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -4822,7 +4839,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -4845,7 +4862,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -4868,7 +4885,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -4891,7 +4908,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -4914,7 +4931,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -4937,7 +4954,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -4963,7 +4980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -4986,7 +5003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -5009,7 +5026,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -5032,7 +5049,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -5055,7 +5072,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -5078,7 +5095,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>100</v>
       </c>
@@ -5101,7 +5118,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -5124,7 +5141,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -5147,7 +5164,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -5170,7 +5187,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>117</v>
       </c>
@@ -5193,7 +5210,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -5216,7 +5233,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -5239,7 +5256,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>117</v>
       </c>
@@ -5262,7 +5279,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -5285,7 +5302,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -5308,7 +5325,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -5331,7 +5348,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -5354,7 +5371,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>117</v>
       </c>
@@ -5377,7 +5394,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -5400,7 +5417,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -5423,7 +5440,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -5446,7 +5463,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>117</v>
       </c>
@@ -5469,7 +5486,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>117</v>
       </c>
@@ -5492,7 +5509,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>117</v>
       </c>
@@ -5515,7 +5532,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>117</v>
       </c>
@@ -5538,7 +5555,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>117</v>
       </c>
@@ -5561,7 +5578,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>117</v>
       </c>
@@ -5584,7 +5601,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>117</v>
       </c>
@@ -5607,7 +5624,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>117</v>
       </c>
@@ -5630,7 +5647,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>117</v>
       </c>
@@ -5653,7 +5670,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -5676,7 +5693,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>117</v>
       </c>
@@ -5699,7 +5716,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>117</v>
       </c>
@@ -5722,7 +5739,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>117</v>
       </c>
@@ -5745,7 +5762,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>180</v>
       </c>
@@ -5768,7 +5785,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>180</v>
       </c>
@@ -5791,7 +5808,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>180</v>
       </c>
@@ -5814,7 +5831,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>180</v>
       </c>
@@ -5837,7 +5854,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>180</v>
       </c>
@@ -5860,7 +5877,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>191</v>
       </c>
@@ -5886,7 +5903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>194</v>
       </c>
@@ -5909,7 +5926,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>197</v>
       </c>
@@ -5932,7 +5949,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>197</v>
       </c>
@@ -5955,7 +5972,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>197</v>
       </c>
@@ -5978,7 +5995,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>197</v>
       </c>
@@ -6001,7 +6018,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>197</v>
       </c>
@@ -6024,7 +6041,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>206</v>
       </c>
@@ -6047,7 +6064,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>206</v>
       </c>
@@ -6070,7 +6087,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>206</v>
       </c>
@@ -6093,7 +6110,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>206</v>
       </c>
@@ -6116,7 +6133,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>206</v>
       </c>
@@ -6139,7 +6156,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>206</v>
       </c>
@@ -6162,7 +6179,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>206</v>
       </c>
@@ -6185,7 +6202,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>206</v>
       </c>
@@ -6208,7 +6225,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>206</v>
       </c>
@@ -6231,7 +6248,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>206</v>
       </c>
@@ -6254,7 +6271,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>214</v>
       </c>
@@ -6277,7 +6294,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>219</v>
       </c>
@@ -6300,7 +6317,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>219</v>
       </c>
@@ -6323,7 +6340,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>219</v>
       </c>
@@ -6346,7 +6363,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>219</v>
       </c>
@@ -6369,7 +6386,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>225</v>
       </c>
@@ -6392,7 +6409,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>225</v>
       </c>
@@ -6415,7 +6432,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>225</v>
       </c>
@@ -6438,7 +6455,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>225</v>
       </c>
@@ -6461,7 +6478,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>225</v>
       </c>
@@ -6484,7 +6501,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>225</v>
       </c>
@@ -6507,7 +6524,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>225</v>
       </c>
@@ -6530,7 +6547,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>225</v>
       </c>
@@ -6553,7 +6570,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>225</v>
       </c>
@@ -6576,7 +6593,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>232</v>
       </c>
@@ -6599,7 +6616,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>232</v>
       </c>
@@ -6622,7 +6639,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -6645,7 +6662,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>232</v>
       </c>
@@ -6668,7 +6685,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>232</v>
       </c>
@@ -6691,7 +6708,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>237</v>
       </c>
@@ -6714,7 +6731,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>237</v>
       </c>
@@ -6737,7 +6754,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>237</v>
       </c>
@@ -6760,7 +6777,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>237</v>
       </c>
@@ -6783,7 +6800,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>237</v>
       </c>
@@ -6806,7 +6823,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>237</v>
       </c>
@@ -6829,7 +6846,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>241</v>
       </c>
@@ -6852,7 +6869,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>241</v>
       </c>
@@ -6875,7 +6892,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>249</v>
       </c>
@@ -6898,7 +6915,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>249</v>
       </c>
@@ -6921,7 +6938,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>249</v>
       </c>
@@ -6944,7 +6961,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>249</v>
       </c>
@@ -6967,7 +6984,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>254</v>
       </c>
@@ -6990,7 +7007,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>254</v>
       </c>
@@ -7013,7 +7030,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>254</v>
       </c>
@@ -7036,7 +7053,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>254</v>
       </c>
@@ -7059,7 +7076,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>261</v>
       </c>
@@ -7082,7 +7099,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>261</v>
       </c>
@@ -7105,7 +7122,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>261</v>
       </c>
@@ -7128,7 +7145,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>261</v>
       </c>
@@ -7151,7 +7168,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>261</v>
       </c>
@@ -7174,7 +7191,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>268</v>
       </c>
@@ -7197,7 +7214,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>268</v>
       </c>
@@ -7220,7 +7237,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>268</v>
       </c>
@@ -7243,7 +7260,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>268</v>
       </c>
@@ -7266,7 +7283,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>268</v>
       </c>
@@ -7289,7 +7306,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>268</v>
       </c>
@@ -7312,7 +7329,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>268</v>
       </c>
@@ -7335,7 +7352,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>268</v>
       </c>
@@ -7358,7 +7375,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>268</v>
       </c>
@@ -7381,7 +7398,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>273</v>
       </c>
@@ -7404,7 +7421,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>273</v>
       </c>
@@ -7427,7 +7444,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>273</v>
       </c>
@@ -7450,7 +7467,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>273</v>
       </c>
@@ -7473,7 +7490,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>273</v>
       </c>
@@ -7496,7 +7513,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>273</v>
       </c>
@@ -7519,7 +7536,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>273</v>
       </c>
@@ -7542,7 +7559,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>273</v>
       </c>
@@ -7565,7 +7582,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>273</v>
       </c>
@@ -7588,7 +7605,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>273</v>
       </c>
@@ -7611,7 +7628,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>273</v>
       </c>
@@ -7634,7 +7651,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>273</v>
       </c>
@@ -7657,7 +7674,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>273</v>
       </c>
@@ -7680,7 +7697,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>273</v>
       </c>
@@ -7703,7 +7720,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>273</v>
       </c>
@@ -7726,7 +7743,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>273</v>
       </c>
@@ -7749,7 +7766,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>273</v>
       </c>
@@ -7772,7 +7789,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>273</v>
       </c>
@@ -7795,7 +7812,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>273</v>
       </c>
@@ -7818,7 +7835,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>273</v>
       </c>
@@ -7841,7 +7858,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>273</v>
       </c>
@@ -7864,7 +7881,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>273</v>
       </c>
@@ -7887,7 +7904,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>318</v>
       </c>
@@ -7910,7 +7927,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>318</v>
       </c>
@@ -7933,7 +7950,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>318</v>
       </c>
@@ -7956,7 +7973,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>318</v>
       </c>
@@ -7979,7 +7996,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>318</v>
       </c>
@@ -8002,7 +8019,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>318</v>
       </c>
@@ -8025,7 +8042,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>318</v>
       </c>
@@ -8048,7 +8065,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>318</v>
       </c>
@@ -8071,7 +8088,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>318</v>
       </c>
@@ -8094,7 +8111,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>318</v>
       </c>
@@ -8117,7 +8134,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>318</v>
       </c>
@@ -8140,7 +8157,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>318</v>
       </c>
@@ -8163,7 +8180,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>318</v>
       </c>
@@ -8186,7 +8203,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>318</v>
       </c>
@@ -8209,7 +8226,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>318</v>
       </c>
@@ -8232,7 +8249,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>318</v>
       </c>
@@ -8255,7 +8272,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>318</v>
       </c>
@@ -8278,7 +8295,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>318</v>
       </c>
@@ -8301,7 +8318,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>318</v>
       </c>
@@ -8324,7 +8341,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>318</v>
       </c>
@@ -8347,7 +8364,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>318</v>
       </c>
@@ -8370,7 +8387,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>318</v>
       </c>
@@ -8393,7 +8410,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>318</v>
       </c>
@@ -8416,7 +8433,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>318</v>
       </c>
@@ -8439,7 +8456,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>318</v>
       </c>
@@ -8462,7 +8479,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>318</v>
       </c>
@@ -8485,7 +8502,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>318</v>
       </c>
@@ -8508,7 +8525,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>318</v>
       </c>
@@ -8531,7 +8548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>318</v>
       </c>
@@ -8554,7 +8571,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
         <v>318</v>
       </c>
@@ -8577,7 +8594,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>318</v>
       </c>
@@ -8600,7 +8617,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>318</v>
       </c>
@@ -8623,7 +8640,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>318</v>
       </c>
@@ -8646,7 +8663,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>318</v>
       </c>
@@ -8669,7 +8686,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>318</v>
       </c>
@@ -8692,7 +8709,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>379</v>
       </c>
@@ -8715,7 +8732,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>379</v>
       </c>
@@ -8738,7 +8755,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>379</v>
       </c>
@@ -8761,7 +8778,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>384</v>
       </c>
@@ -8784,7 +8801,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>384</v>
       </c>
@@ -8807,7 +8824,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>389</v>
       </c>
@@ -8830,7 +8847,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>389</v>
       </c>
@@ -8853,7 +8870,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>394</v>
       </c>
@@ -8876,7 +8893,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>394</v>
       </c>
@@ -8899,7 +8916,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>397</v>
       </c>
@@ -8922,7 +8939,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>398</v>
       </c>
@@ -8945,7 +8962,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>398</v>
       </c>
@@ -8968,7 +8985,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>398</v>
       </c>
@@ -8991,7 +9008,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>398</v>
       </c>
@@ -9017,7 +9034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>398</v>
       </c>
@@ -9043,7 +9060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>403</v>
       </c>
@@ -9066,7 +9083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>403</v>
       </c>
@@ -9089,7 +9106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>404</v>
       </c>
@@ -9112,7 +9129,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>404</v>
       </c>
@@ -9135,7 +9152,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>407</v>
       </c>
@@ -9158,7 +9175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>407</v>
       </c>
@@ -9181,7 +9198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>407</v>
       </c>
@@ -9204,7 +9221,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>407</v>
       </c>
@@ -9227,7 +9244,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>407</v>
       </c>
@@ -9250,7 +9267,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>416</v>
       </c>
@@ -9276,7 +9293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>416</v>
       </c>
@@ -9302,7 +9319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>416</v>
       </c>
@@ -9328,7 +9345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>416</v>
       </c>
@@ -9354,7 +9371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>416</v>
       </c>
@@ -9380,7 +9397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>416</v>
       </c>
@@ -9403,7 +9420,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>416</v>
       </c>
@@ -9429,7 +9446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>416</v>
       </c>
@@ -9455,7 +9472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>416</v>
       </c>
@@ -9481,7 +9498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>443</v>
       </c>
@@ -9504,7 +9521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
         <v>443</v>
       </c>
@@ -9527,7 +9544,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>443</v>
       </c>
@@ -9550,7 +9567,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>443</v>
       </c>
@@ -9573,7 +9590,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>443</v>
       </c>
@@ -9596,7 +9613,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>443</v>
       </c>
@@ -9619,7 +9636,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>443</v>
       </c>
@@ -9642,7 +9659,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>443</v>
       </c>
@@ -9665,7 +9682,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>443</v>
       </c>
@@ -9688,7 +9705,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>443</v>
       </c>
@@ -9711,7 +9728,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
         <v>443</v>
       </c>
@@ -9734,7 +9751,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>443</v>
       </c>
@@ -9757,7 +9774,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>443</v>
       </c>
@@ -9780,7 +9797,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
         <v>443</v>
       </c>
@@ -9803,7 +9820,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
         <v>443</v>
       </c>
@@ -9826,7 +9843,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
         <v>443</v>
       </c>
@@ -9849,7 +9866,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" t="s">
         <v>443</v>
       </c>
@@ -9872,7 +9889,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>443</v>
       </c>
@@ -9895,7 +9912,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>443</v>
       </c>
@@ -9918,7 +9935,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" t="s">
         <v>443</v>
       </c>
@@ -9941,7 +9958,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" t="s">
         <v>443</v>
       </c>
@@ -9964,7 +9981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" t="s">
         <v>443</v>
       </c>
@@ -9987,7 +10004,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>443</v>
       </c>
@@ -10010,7 +10027,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>443</v>
       </c>
@@ -10033,7 +10050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
         <v>443</v>
       </c>
@@ -10056,7 +10073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" t="s">
         <v>500</v>
       </c>
@@ -10079,7 +10096,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
         <v>500</v>
       </c>
@@ -10102,7 +10119,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
         <v>500</v>
       </c>
@@ -10125,7 +10142,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" t="s">
         <v>500</v>
       </c>
@@ -10148,7 +10165,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>500</v>
       </c>
@@ -10171,7 +10188,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" t="s">
         <v>500</v>
       </c>
@@ -10194,7 +10211,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" t="s">
         <v>500</v>
       </c>
@@ -10217,7 +10234,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" t="s">
         <v>500</v>
       </c>
@@ -10240,7 +10257,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>515</v>
       </c>
@@ -10263,7 +10280,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" t="s">
         <v>515</v>
       </c>
@@ -10286,7 +10303,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" t="s">
         <v>515</v>
       </c>
@@ -10309,7 +10326,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" t="s">
         <v>515</v>
       </c>
@@ -10332,7 +10349,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" t="s">
         <v>515</v>
       </c>
@@ -10355,7 +10372,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" t="s">
         <v>515</v>
       </c>
@@ -10378,7 +10395,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" t="s">
         <v>515</v>
       </c>
@@ -10401,7 +10418,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" t="s">
         <v>515</v>
       </c>
@@ -10424,7 +10441,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>515</v>
       </c>
@@ -10447,7 +10464,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" t="s">
         <v>515</v>
       </c>
@@ -10470,7 +10487,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>515</v>
       </c>
@@ -10493,7 +10510,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" t="s">
         <v>515</v>
       </c>
@@ -10516,7 +10533,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>515</v>
       </c>
@@ -10539,7 +10556,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
         <v>515</v>
       </c>
@@ -10562,7 +10579,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>515</v>
       </c>
@@ -10585,7 +10602,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" t="s">
         <v>515</v>
       </c>
@@ -10608,7 +10625,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>515</v>
       </c>
@@ -10631,7 +10648,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" t="s">
         <v>515</v>
       </c>
@@ -10654,7 +10671,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7">
       <c r="A291" t="s">
         <v>515</v>
       </c>
@@ -10677,7 +10694,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7">
       <c r="A292" t="s">
         <v>515</v>
       </c>
@@ -10700,7 +10717,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
         <v>515</v>
       </c>
@@ -10723,7 +10740,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
         <v>515</v>
       </c>
@@ -10746,7 +10763,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
         <v>553</v>
       </c>
@@ -10769,7 +10786,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
         <v>553</v>
       </c>
@@ -10792,7 +10809,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297" t="s">
         <v>553</v>
       </c>
@@ -10815,7 +10832,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" t="s">
         <v>553</v>
       </c>
@@ -10838,7 +10855,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" t="s">
         <v>564</v>
       </c>
@@ -10861,7 +10878,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" t="s">
         <v>564</v>
       </c>
@@ -10884,7 +10901,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" t="s">
         <v>564</v>
       </c>
@@ -10907,7 +10924,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" t="s">
         <v>564</v>
       </c>
@@ -10930,7 +10947,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" t="s">
         <v>564</v>
       </c>
@@ -10953,7 +10970,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" t="s">
         <v>564</v>
       </c>
@@ -10976,7 +10993,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" t="s">
         <v>577</v>
       </c>
@@ -10999,7 +11016,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" t="s">
         <v>577</v>
       </c>
@@ -11022,7 +11039,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" t="s">
         <v>577</v>
       </c>
@@ -11045,7 +11062,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" t="s">
         <v>577</v>
       </c>
@@ -11068,7 +11085,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" t="s">
         <v>577</v>
       </c>
@@ -11091,7 +11108,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" t="s">
         <v>577</v>
       </c>
@@ -11114,7 +11131,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" t="s">
         <v>577</v>
       </c>
@@ -11137,7 +11154,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" t="s">
         <v>577</v>
       </c>
@@ -11160,7 +11177,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" t="s">
         <v>577</v>
       </c>
@@ -11183,7 +11200,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" t="s">
         <v>577</v>
       </c>
@@ -11206,7 +11223,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" t="s">
         <v>577</v>
       </c>
@@ -11229,7 +11246,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" t="s">
         <v>577</v>
       </c>
@@ -11252,7 +11269,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" t="s">
         <v>599</v>
       </c>
@@ -11275,7 +11292,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7">
       <c r="A318" t="s">
         <v>599</v>
       </c>
@@ -11298,7 +11315,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" t="s">
         <v>599</v>
       </c>
@@ -11321,7 +11338,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" t="s">
         <v>599</v>
       </c>
@@ -11344,7 +11361,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" t="s">
         <v>599</v>
       </c>
@@ -11367,7 +11384,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" t="s">
         <v>599</v>
       </c>
@@ -11390,7 +11407,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7">
       <c r="A323" t="s">
         <v>599</v>
       </c>
@@ -11413,7 +11430,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7">
       <c r="A324" t="s">
         <v>618</v>
       </c>
@@ -11436,7 +11453,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" t="s">
         <v>618</v>
       </c>
@@ -11459,7 +11476,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" t="s">
         <v>622</v>
       </c>
@@ -11482,7 +11499,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" t="s">
         <v>622</v>
       </c>
@@ -11505,7 +11522,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7">
       <c r="A328" t="s">
         <v>622</v>
       </c>
@@ -11528,7 +11545,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7">
       <c r="A329" t="s">
         <v>622</v>
       </c>
@@ -11551,7 +11568,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" t="s">
         <v>636</v>
       </c>
@@ -11574,7 +11591,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" t="s">
         <v>636</v>
       </c>
@@ -11597,7 +11614,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7">
       <c r="A332" t="s">
         <v>636</v>
       </c>
@@ -11620,7 +11637,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" t="s">
         <v>636</v>
       </c>
@@ -11643,7 +11660,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" t="s">
         <v>650</v>
       </c>
@@ -11666,7 +11683,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" t="s">
         <v>650</v>
       </c>
@@ -11689,7 +11706,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" t="s">
         <v>650</v>
       </c>
@@ -11712,7 +11729,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" t="s">
         <v>650</v>
       </c>
@@ -11735,7 +11752,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" t="s">
         <v>664</v>
       </c>
@@ -11758,7 +11775,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" t="s">
         <v>664</v>
       </c>
@@ -11781,7 +11798,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" t="s">
         <v>664</v>
       </c>
@@ -11804,7 +11821,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" t="s">
         <v>664</v>
       </c>
@@ -11827,7 +11844,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" t="s">
         <v>664</v>
       </c>
@@ -11850,7 +11867,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7">
       <c r="A343" t="s">
         <v>664</v>
       </c>
@@ -11873,7 +11890,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" t="s">
         <v>664</v>
       </c>
@@ -11896,7 +11913,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" t="s">
         <v>664</v>
       </c>
@@ -11919,7 +11936,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7">
       <c r="A346" t="s">
         <v>664</v>
       </c>
@@ -11942,7 +11959,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" t="s">
         <v>664</v>
       </c>
@@ -11965,7 +11982,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" t="s">
         <v>664</v>
       </c>
@@ -11988,7 +12005,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" t="s">
         <v>664</v>
       </c>
@@ -12011,7 +12028,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7">
       <c r="A350" t="s">
         <v>664</v>
       </c>
@@ -12034,7 +12051,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" t="s">
         <v>664</v>
       </c>
@@ -12057,7 +12074,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" t="s">
         <v>664</v>
       </c>
@@ -12080,7 +12097,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" t="s">
         <v>664</v>
       </c>
@@ -12103,7 +12120,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" t="s">
         <v>664</v>
       </c>
@@ -12126,7 +12143,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7">
       <c r="A355" t="s">
         <v>664</v>
       </c>
@@ -12149,7 +12166,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7">
       <c r="A356" t="s">
         <v>711</v>
       </c>
@@ -12172,7 +12189,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" t="s">
         <v>711</v>
       </c>
@@ -12195,7 +12212,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" t="s">
         <v>711</v>
       </c>
@@ -12218,7 +12235,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" t="s">
         <v>711</v>
       </c>
@@ -12241,7 +12258,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" t="s">
         <v>711</v>
       </c>
@@ -12264,7 +12281,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7">
       <c r="A361" t="s">
         <v>711</v>
       </c>
@@ -12287,7 +12304,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" t="s">
         <v>730</v>
       </c>
@@ -12310,7 +12327,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" t="s">
         <v>730</v>
       </c>
@@ -12333,7 +12350,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" t="s">
         <v>730</v>
       </c>
@@ -12356,7 +12373,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" t="s">
         <v>741</v>
       </c>
@@ -12379,7 +12396,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" t="s">
         <v>741</v>
       </c>
@@ -12402,7 +12419,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" t="s">
         <v>741</v>
       </c>
@@ -12425,7 +12442,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" t="s">
         <v>741</v>
       </c>
@@ -12448,7 +12465,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7">
       <c r="A369" t="s">
         <v>741</v>
       </c>
@@ -12471,7 +12488,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7">
       <c r="A370" t="s">
         <v>741</v>
       </c>
@@ -12494,7 +12511,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7">
       <c r="A371" t="s">
         <v>741</v>
       </c>
@@ -12517,7 +12534,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7">
       <c r="A372" t="s">
         <v>741</v>
       </c>
@@ -12540,7 +12557,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7">
       <c r="A373" t="s">
         <v>741</v>
       </c>
@@ -12563,7 +12580,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7">
       <c r="A374" t="s">
         <v>741</v>
       </c>
@@ -12586,7 +12603,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7">
       <c r="A375" t="s">
         <v>741</v>
       </c>
@@ -12609,7 +12626,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7">
       <c r="A376" t="s">
         <v>741</v>
       </c>
@@ -12632,7 +12649,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7">
       <c r="A377" t="s">
         <v>741</v>
       </c>
@@ -12655,7 +12672,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7">
       <c r="A378" t="s">
         <v>741</v>
       </c>
@@ -12678,7 +12695,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7">
       <c r="A379" t="s">
         <v>741</v>
       </c>
@@ -12701,7 +12718,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7">
       <c r="A380" t="s">
         <v>741</v>
       </c>
@@ -12724,7 +12741,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7">
       <c r="A381" t="s">
         <v>741</v>
       </c>
@@ -12747,7 +12764,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7">
       <c r="A382" t="s">
         <v>741</v>
       </c>
@@ -12770,7 +12787,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7">
       <c r="A383" t="s">
         <v>741</v>
       </c>
@@ -12793,7 +12810,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7">
       <c r="A384" t="s">
         <v>741</v>
       </c>
@@ -12816,7 +12833,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7">
       <c r="A385" t="s">
         <v>741</v>
       </c>
@@ -12839,7 +12856,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7">
       <c r="A386" t="s">
         <v>741</v>
       </c>
@@ -12862,7 +12879,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7">
       <c r="A387" t="s">
         <v>741</v>
       </c>
@@ -12885,7 +12902,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7">
       <c r="A388" t="s">
         <v>741</v>
       </c>
@@ -12908,7 +12925,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7">
       <c r="A389" t="s">
         <v>741</v>
       </c>
@@ -12931,7 +12948,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7">
       <c r="A390" t="s">
         <v>741</v>
       </c>
@@ -12954,7 +12971,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7">
       <c r="A391" t="s">
         <v>741</v>
       </c>
@@ -12977,7 +12994,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7">
       <c r="A392" t="s">
         <v>741</v>
       </c>
@@ -13000,7 +13017,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7">
       <c r="A393" t="s">
         <v>741</v>
       </c>
@@ -13023,7 +13040,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7">
       <c r="A394" t="s">
         <v>741</v>
       </c>
@@ -13046,7 +13063,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7">
       <c r="A395" t="s">
         <v>741</v>
       </c>
@@ -13069,7 +13086,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7">
       <c r="A396" t="s">
         <v>741</v>
       </c>
@@ -13092,7 +13109,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7">
       <c r="A397" t="s">
         <v>741</v>
       </c>
@@ -13115,7 +13132,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7">
       <c r="A398" t="s">
         <v>741</v>
       </c>
@@ -13138,7 +13155,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7">
       <c r="A399" t="s">
         <v>741</v>
       </c>
@@ -13161,7 +13178,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7">
       <c r="A400" t="s">
         <v>741</v>
       </c>
@@ -13184,7 +13201,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7">
       <c r="A401" t="s">
         <v>741</v>
       </c>
@@ -13207,7 +13224,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7">
       <c r="A402" t="s">
         <v>741</v>
       </c>
@@ -13230,7 +13247,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7">
       <c r="A403" t="s">
         <v>741</v>
       </c>
@@ -13253,7 +13270,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7">
       <c r="A404" t="s">
         <v>741</v>
       </c>
@@ -13276,7 +13293,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7">
       <c r="A405" t="s">
         <v>741</v>
       </c>
@@ -13299,7 +13316,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7">
       <c r="A406" t="s">
         <v>741</v>
       </c>
@@ -13322,7 +13339,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7">
       <c r="A407" t="s">
         <v>741</v>
       </c>
@@ -13345,7 +13362,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7">
       <c r="A408" t="s">
         <v>741</v>
       </c>
@@ -13368,7 +13385,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7">
       <c r="A409" t="s">
         <v>741</v>
       </c>
@@ -13391,7 +13408,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7">
       <c r="A410" t="s">
         <v>859</v>
       </c>
@@ -13414,7 +13431,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7">
       <c r="A411" t="s">
         <v>859</v>
       </c>
@@ -13437,7 +13454,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7">
       <c r="A412" t="s">
         <v>859</v>
       </c>
@@ -13460,7 +13477,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7">
       <c r="A413" t="s">
         <v>859</v>
       </c>
@@ -13483,7 +13500,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7">
       <c r="A414" t="s">
         <v>859</v>
       </c>
@@ -13506,7 +13523,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7">
       <c r="A415" t="s">
         <v>859</v>
       </c>
@@ -13529,7 +13546,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7">
       <c r="A416" t="s">
         <v>859</v>
       </c>
@@ -13552,7 +13569,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" t="s">
         <v>859</v>
       </c>
@@ -13575,7 +13592,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7">
       <c r="A418" t="s">
         <v>859</v>
       </c>
@@ -13598,7 +13615,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7">
       <c r="A419" t="s">
         <v>859</v>
       </c>
@@ -13621,7 +13638,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7">
       <c r="A420" t="s">
         <v>859</v>
       </c>
@@ -13644,7 +13661,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7">
       <c r="A421" t="s">
         <v>859</v>
       </c>
@@ -13667,7 +13684,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7">
       <c r="A422" t="s">
         <v>859</v>
       </c>
@@ -13690,7 +13707,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7">
       <c r="A423" t="s">
         <v>859</v>
       </c>
@@ -13713,7 +13730,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7">
       <c r="A424" t="s">
         <v>859</v>
       </c>
@@ -13736,7 +13753,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7">
       <c r="A425" t="s">
         <v>859</v>
       </c>
@@ -13759,7 +13776,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7">
       <c r="A426" t="s">
         <v>859</v>
       </c>
@@ -13782,7 +13799,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7">
       <c r="A427" t="s">
         <v>859</v>
       </c>
@@ -13805,7 +13822,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7">
       <c r="A428" t="s">
         <v>859</v>
       </c>
@@ -13828,7 +13845,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7">
       <c r="A429" t="s">
         <v>859</v>
       </c>
@@ -13851,7 +13868,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7">
       <c r="A430" t="s">
         <v>899</v>
       </c>
@@ -13874,7 +13891,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7">
       <c r="A431" t="s">
         <v>899</v>
       </c>
@@ -13897,7 +13914,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7">
       <c r="A432" t="s">
         <v>900</v>
       </c>
@@ -13920,7 +13937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8">
       <c r="A433" t="s">
         <v>900</v>
       </c>
@@ -13943,7 +13960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8">
       <c r="A434" t="s">
         <v>900</v>
       </c>
@@ -13966,7 +13983,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8">
       <c r="A435" t="s">
         <v>901</v>
       </c>
@@ -13989,7 +14006,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8">
       <c r="A436" t="s">
         <v>901</v>
       </c>
@@ -14012,7 +14029,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8">
       <c r="A437" t="s">
         <v>901</v>
       </c>
@@ -14035,7 +14052,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8">
       <c r="A438" t="s">
         <v>901</v>
       </c>
@@ -14058,7 +14075,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8">
       <c r="A439" t="s">
         <v>901</v>
       </c>
@@ -14081,7 +14098,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8">
       <c r="A440" t="s">
         <v>902</v>
       </c>
@@ -14104,7 +14121,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8">
       <c r="A441" t="s">
         <v>902</v>
       </c>
@@ -14127,7 +14144,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8">
       <c r="A442" t="s">
         <v>905</v>
       </c>
@@ -14150,7 +14167,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8">
       <c r="A443" t="s">
         <v>905</v>
       </c>
@@ -14173,7 +14190,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8">
       <c r="A444" t="s">
         <v>908</v>
       </c>
@@ -14196,7 +14213,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8">
       <c r="A445" t="s">
         <v>908</v>
       </c>
@@ -14219,7 +14236,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8">
       <c r="A446" t="s">
         <v>908</v>
       </c>
@@ -14242,7 +14259,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8">
       <c r="A447" t="s">
         <v>908</v>
       </c>
@@ -14265,7 +14282,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8">
       <c r="A448" t="s">
         <v>908</v>
       </c>
@@ -14291,7 +14308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7">
       <c r="A449" t="s">
         <v>915</v>
       </c>
@@ -14314,7 +14331,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7">
       <c r="A450" t="s">
         <v>915</v>
       </c>
@@ -14337,7 +14354,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7">
       <c r="A451" t="s">
         <v>916</v>
       </c>
@@ -14360,7 +14377,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7">
       <c r="A452" t="s">
         <v>916</v>
       </c>
@@ -14383,7 +14400,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7">
       <c r="A453" t="s">
         <v>916</v>
       </c>
@@ -14406,7 +14423,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7">
       <c r="A454" t="s">
         <v>916</v>
       </c>
@@ -14429,7 +14446,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7">
       <c r="A455" t="s">
         <v>923</v>
       </c>
@@ -14452,7 +14469,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7">
       <c r="A456" t="s">
         <v>923</v>
       </c>
@@ -14475,7 +14492,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7">
       <c r="A457" t="s">
         <v>923</v>
       </c>
@@ -14498,7 +14515,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7">
       <c r="A458" t="s">
         <v>923</v>
       </c>
@@ -14521,7 +14538,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7">
       <c r="A459" t="s">
         <v>937</v>
       </c>
@@ -14544,7 +14561,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7">
       <c r="A460" t="s">
         <v>937</v>
       </c>
@@ -14567,7 +14584,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7">
       <c r="A461" t="s">
         <v>937</v>
       </c>
@@ -14590,7 +14607,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7">
       <c r="A462" t="s">
         <v>941</v>
       </c>
@@ -14613,7 +14630,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7">
       <c r="A463" t="s">
         <v>944</v>
       </c>
@@ -14636,7 +14653,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7">
       <c r="A464" t="s">
         <v>944</v>
       </c>
@@ -14659,7 +14676,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8">
       <c r="A465" t="s">
         <v>947</v>
       </c>
@@ -14685,7 +14702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8">
       <c r="A466" t="s">
         <v>947</v>
       </c>
@@ -14711,7 +14728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8">
       <c r="A467" t="s">
         <v>947</v>
       </c>
@@ -14737,7 +14754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8">
       <c r="A468" t="s">
         <v>947</v>
       </c>
@@ -14763,7 +14780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8">
       <c r="A469" t="s">
         <v>947</v>
       </c>
@@ -14789,7 +14806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8">
       <c r="A470" t="s">
         <v>947</v>
       </c>
@@ -14815,7 +14832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8">
       <c r="A471" t="s">
         <v>947</v>
       </c>
@@ -14841,7 +14858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8">
       <c r="A472" t="s">
         <v>947</v>
       </c>
@@ -14867,7 +14884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8">
       <c r="A473" t="s">
         <v>947</v>
       </c>
@@ -14893,7 +14910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8">
       <c r="A474" t="s">
         <v>947</v>
       </c>
@@ -14919,7 +14936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8">
       <c r="A475" t="s">
         <v>947</v>
       </c>
@@ -14945,7 +14962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8">
       <c r="A476" t="s">
         <v>947</v>
       </c>
@@ -14971,7 +14988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8">
       <c r="A477" t="s">
         <v>947</v>
       </c>
@@ -14997,7 +15014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8">
       <c r="A478" t="s">
         <v>947</v>
       </c>
@@ -15023,7 +15040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8">
       <c r="A479" t="s">
         <v>947</v>
       </c>
@@ -15049,7 +15066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8">
       <c r="A480" t="s">
         <v>947</v>
       </c>
@@ -15075,7 +15092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8">
       <c r="A481" t="s">
         <v>947</v>
       </c>
@@ -15101,7 +15118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8">
       <c r="A482" t="s">
         <v>947</v>
       </c>
@@ -15127,7 +15144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8">
       <c r="A483" t="s">
         <v>947</v>
       </c>
@@ -15153,7 +15170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8">
       <c r="A484" t="s">
         <v>947</v>
       </c>
@@ -15179,7 +15196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8">
       <c r="A485" t="s">
         <v>947</v>
       </c>
@@ -15205,7 +15222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8">
       <c r="A486" t="s">
         <v>947</v>
       </c>
@@ -15231,7 +15248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8">
       <c r="A487" t="s">
         <v>947</v>
       </c>
@@ -15257,7 +15274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8">
       <c r="A488" t="s">
         <v>947</v>
       </c>
@@ -15283,7 +15300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8">
       <c r="A489" t="s">
         <v>947</v>
       </c>
@@ -15309,7 +15326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8">
       <c r="A490" t="s">
         <v>947</v>
       </c>
@@ -15335,7 +15352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8">
       <c r="A491" t="s">
         <v>947</v>
       </c>
@@ -15361,7 +15378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8">
       <c r="A492" t="s">
         <v>947</v>
       </c>
@@ -15387,7 +15404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8">
       <c r="A493" t="s">
         <v>947</v>
       </c>
@@ -15413,7 +15430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8">
       <c r="A494" t="s">
         <v>947</v>
       </c>
@@ -15439,7 +15456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8">
       <c r="A495" t="s">
         <v>947</v>
       </c>
@@ -15465,7 +15482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8">
       <c r="A496" t="s">
         <v>947</v>
       </c>
@@ -15491,7 +15508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8">
       <c r="A497" t="s">
         <v>947</v>
       </c>
@@ -15517,7 +15534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8">
       <c r="A498" t="s">
         <v>947</v>
       </c>
@@ -15543,7 +15560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8">
       <c r="A499" t="s">
         <v>947</v>
       </c>
@@ -15569,7 +15586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8">
       <c r="A500" t="s">
         <v>947</v>
       </c>
@@ -15595,7 +15612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8">
       <c r="A501" t="s">
         <v>947</v>
       </c>
@@ -15621,7 +15638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8">
       <c r="A502" t="s">
         <v>947</v>
       </c>
@@ -15647,7 +15664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8">
       <c r="A503" t="s">
         <v>947</v>
       </c>
@@ -15673,7 +15690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8">
       <c r="A504" t="s">
         <v>947</v>
       </c>
@@ -15699,7 +15716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8">
       <c r="A505" t="s">
         <v>947</v>
       </c>
@@ -15725,7 +15742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8">
       <c r="A506" t="s">
         <v>947</v>
       </c>
@@ -15751,7 +15768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8">
       <c r="A507" t="s">
         <v>947</v>
       </c>
@@ -15777,7 +15794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8">
       <c r="A508" t="s">
         <v>947</v>
       </c>
@@ -15803,7 +15820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8">
       <c r="A509" t="s">
         <v>947</v>
       </c>
@@ -15829,7 +15846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8">
       <c r="A510" t="s">
         <v>947</v>
       </c>
@@ -15855,7 +15872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8">
       <c r="A511" t="s">
         <v>947</v>
       </c>
@@ -15881,7 +15898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8">
       <c r="A512" t="s">
         <v>947</v>
       </c>
@@ -15907,7 +15924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8">
       <c r="A513" t="s">
         <v>947</v>
       </c>
@@ -15933,7 +15950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8">
       <c r="A514" t="s">
         <v>947</v>
       </c>
@@ -15959,7 +15976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8">
       <c r="A515" t="s">
         <v>947</v>
       </c>
@@ -15985,7 +16002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8">
       <c r="A516" t="s">
         <v>947</v>
       </c>
@@ -16011,7 +16028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8">
       <c r="A517" t="s">
         <v>947</v>
       </c>
@@ -16037,7 +16054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8">
       <c r="A518" t="s">
         <v>947</v>
       </c>
@@ -16063,7 +16080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8">
       <c r="A519" t="s">
         <v>947</v>
       </c>
@@ -16089,7 +16106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8">
       <c r="A520" t="s">
         <v>947</v>
       </c>
@@ -16115,7 +16132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8">
       <c r="A521" t="s">
         <v>947</v>
       </c>
@@ -16141,7 +16158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8">
       <c r="A522" t="s">
         <v>947</v>
       </c>
@@ -16167,7 +16184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8">
       <c r="A523" t="s">
         <v>947</v>
       </c>
@@ -16193,7 +16210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8">
       <c r="A524" t="s">
         <v>947</v>
       </c>
@@ -16219,7 +16236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8">
       <c r="A525" t="s">
         <v>947</v>
       </c>
@@ -16245,7 +16262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8">
       <c r="A526" t="s">
         <v>947</v>
       </c>
@@ -16271,7 +16288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8">
       <c r="A527" t="s">
         <v>947</v>
       </c>
@@ -16297,7 +16314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8">
       <c r="A528" t="s">
         <v>947</v>
       </c>
@@ -16323,7 +16340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8">
       <c r="A529" t="s">
         <v>947</v>
       </c>
@@ -16349,7 +16366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8">
       <c r="A530" t="s">
         <v>947</v>
       </c>
@@ -16375,7 +16392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8">
       <c r="A531" t="s">
         <v>947</v>
       </c>
@@ -16401,7 +16418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8">
       <c r="A532" t="s">
         <v>947</v>
       </c>
@@ -16427,7 +16444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8">
       <c r="A533" t="s">
         <v>947</v>
       </c>
@@ -16453,7 +16470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8">
       <c r="A534" t="s">
         <v>1065</v>
       </c>
@@ -16476,7 +16493,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8">
       <c r="A535" t="s">
         <v>1065</v>
       </c>
@@ -16499,7 +16516,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8">
       <c r="A536" t="s">
         <v>1065</v>
       </c>
@@ -16522,7 +16539,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8">
       <c r="A537" t="s">
         <v>1065</v>
       </c>
@@ -16545,7 +16562,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8">
       <c r="A538" t="s">
         <v>1065</v>
       </c>
@@ -16568,7 +16585,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8">
       <c r="A539" t="s">
         <v>1065</v>
       </c>
@@ -16591,7 +16608,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8">
       <c r="A540" t="s">
         <v>1065</v>
       </c>
@@ -16614,7 +16631,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8">
       <c r="A541" t="s">
         <v>1065</v>
       </c>
@@ -16637,7 +16654,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8">
       <c r="A542" t="s">
         <v>1065</v>
       </c>
@@ -16660,7 +16677,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8">
       <c r="A543" t="s">
         <v>1065</v>
       </c>
@@ -16683,7 +16700,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8">
       <c r="A544" t="s">
         <v>1065</v>
       </c>
@@ -16706,7 +16723,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7">
       <c r="A545" t="s">
         <v>1065</v>
       </c>
@@ -16729,7 +16746,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7">
       <c r="A546" t="s">
         <v>1065</v>
       </c>
@@ -16752,7 +16769,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7">
       <c r="A547" t="s">
         <v>1065</v>
       </c>
@@ -16775,7 +16792,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7">
       <c r="A548" t="s">
         <v>1065</v>
       </c>
@@ -16798,7 +16815,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7">
       <c r="A549" t="s">
         <v>1065</v>
       </c>
@@ -16821,7 +16838,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7">
       <c r="A550" t="s">
         <v>1065</v>
       </c>
@@ -16844,7 +16861,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7">
       <c r="A551" t="s">
         <v>1065</v>
       </c>
@@ -16867,7 +16884,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7">
       <c r="A552" t="s">
         <v>1065</v>
       </c>
@@ -16890,7 +16907,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7">
       <c r="A553" t="s">
         <v>1065</v>
       </c>
@@ -16913,7 +16930,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7">
       <c r="A554" t="s">
         <v>1065</v>
       </c>
@@ -16936,7 +16953,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7">
       <c r="A555" t="s">
         <v>1065</v>
       </c>
@@ -16959,7 +16976,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7">
       <c r="A556" t="s">
         <v>1065</v>
       </c>
@@ -16982,7 +16999,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7">
       <c r="A557" t="s">
         <v>1065</v>
       </c>
@@ -17005,7 +17022,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7">
       <c r="A558" t="s">
         <v>1065</v>
       </c>
@@ -17028,7 +17045,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7">
       <c r="A559" t="s">
         <v>1065</v>
       </c>
@@ -17051,7 +17068,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7">
       <c r="A560" t="s">
         <v>1065</v>
       </c>
@@ -17074,7 +17091,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8">
       <c r="A561" t="s">
         <v>1065</v>
       </c>
@@ -17097,7 +17114,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8">
       <c r="A562" t="s">
         <v>1065</v>
       </c>
@@ -17120,7 +17137,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8">
       <c r="A563" t="s">
         <v>1065</v>
       </c>
@@ -17143,7 +17160,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8">
       <c r="A564" t="s">
         <v>1065</v>
       </c>
@@ -17166,7 +17183,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8">
       <c r="A565" t="s">
         <v>1065</v>
       </c>
@@ -17189,7 +17206,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8">
       <c r="A566" t="s">
         <v>1065</v>
       </c>
@@ -17212,7 +17229,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8">
       <c r="A567" t="s">
         <v>1065</v>
       </c>
@@ -17235,7 +17252,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8">
       <c r="A568" t="s">
         <v>1065</v>
       </c>
@@ -17258,7 +17275,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8">
       <c r="A569" t="s">
         <v>1065</v>
       </c>
@@ -17284,7 +17301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8">
       <c r="A570" t="s">
         <v>1142</v>
       </c>
@@ -17307,7 +17324,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8">
       <c r="A571" t="s">
         <v>1142</v>
       </c>
@@ -17330,7 +17347,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8">
       <c r="A572" t="s">
         <v>1142</v>
       </c>
@@ -17353,7 +17370,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8">
       <c r="A573" t="s">
         <v>1142</v>
       </c>
@@ -17376,7 +17393,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8">
       <c r="A574" t="s">
         <v>1142</v>
       </c>
@@ -17399,7 +17416,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8">
       <c r="A575" t="s">
         <v>1142</v>
       </c>
@@ -17422,7 +17439,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8">
       <c r="A576" t="s">
         <v>1142</v>
       </c>
@@ -17445,7 +17462,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7">
       <c r="A577" t="s">
         <v>1142</v>
       </c>
@@ -17468,7 +17485,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7">
       <c r="A578" t="s">
         <v>1165</v>
       </c>
@@ -17491,7 +17508,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7">
       <c r="A579" t="s">
         <v>1165</v>
       </c>
@@ -17514,7 +17531,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7">
       <c r="A580" t="s">
         <v>1165</v>
       </c>
@@ -17537,7 +17554,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7">
       <c r="A581" t="s">
         <v>1165</v>
       </c>
@@ -17560,7 +17577,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7">
       <c r="A582" t="s">
         <v>1165</v>
       </c>
@@ -17583,7 +17600,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7">
       <c r="A583" t="s">
         <v>1165</v>
       </c>
@@ -17606,7 +17623,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7">
       <c r="A584" t="s">
         <v>1165</v>
       </c>
@@ -17630,7 +17647,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>